--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -2328,7 +2328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13605" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13662" uniqueCount="824">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5522,6 +5522,18 @@
   </si>
   <si>
     <t>175,245,280,315,350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5895,11 +5907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM236"/>
+  <dimension ref="A1:CM237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CH237" sqref="CH237"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y240" sqref="Y240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -69879,6 +69891,277 @@
         <v>0</v>
       </c>
     </row>
+    <row r="237" spans="1:91" x14ac:dyDescent="0.15">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>821</v>
+      </c>
+      <c r="C237" s="2">
+        <v>4</v>
+      </c>
+      <c r="D237" s="2">
+        <v>1</v>
+      </c>
+      <c r="E237" s="2">
+        <v>2</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J237" s="2">
+        <v>3</v>
+      </c>
+      <c r="K237" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L237" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M237" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N237" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P237" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S237" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="T237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X237" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y237" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z237" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA237" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC237" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD237" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF237" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AG237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL237" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN237" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO237">
+        <v>0</v>
+      </c>
+      <c r="AP237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW237" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY237" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ237" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA237" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB237" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD237" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE237" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF237" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG237" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH237" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI237" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ237" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK237" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN237" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="BO237" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="BP237" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="BQ237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU237" s="2"/>
+      <c r="BV237" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW237" s="2">
+        <v>4</v>
+      </c>
+      <c r="BX237" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY237" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA237" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD237" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE237" s="2"/>
+      <c r="CF237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CJ237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CK237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL237" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM237" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -2328,7 +2328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13662" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13714" uniqueCount="827">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5534,6 +5534,18 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回城特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5907,11 +5919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM237"/>
+  <dimension ref="A1:CM238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y240" sqref="Y240"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K247" sqref="K247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -70162,6 +70174,277 @@
         <v>0</v>
       </c>
     </row>
+    <row r="238" spans="1:91" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>824</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D238" s="2">
+        <v>1</v>
+      </c>
+      <c r="E238" s="2">
+        <v>2</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J238" s="2">
+        <v>3</v>
+      </c>
+      <c r="K238" s="2">
+        <v>2</v>
+      </c>
+      <c r="L238" s="2">
+        <v>2</v>
+      </c>
+      <c r="M238" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N238" s="2">
+        <v>2</v>
+      </c>
+      <c r="O238" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P238" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T238" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y238" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z238" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA238" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC238" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD238" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF238" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL238" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN238" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV238" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW238" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="AX238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY238" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ238" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA238" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB238" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC238" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="BD238" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE238" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF238" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG238" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH238" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI238" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ238" s="2">
+        <v>2</v>
+      </c>
+      <c r="BK238" s="2">
+        <v>2</v>
+      </c>
+      <c r="BL238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN238" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO238" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP238" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU238" s="2"/>
+      <c r="BV238" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW238" s="2">
+        <v>4</v>
+      </c>
+      <c r="BX238" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY238" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA238" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD238" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE238" s="2"/>
+      <c r="CF238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CJ238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CK238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL238" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM238" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -4927,626 +4927,626 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCalStatusAmaor</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漩涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灭减护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂缴械(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂缴械(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰眼(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰眼(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔刀锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰歌弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺者之斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣者遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振奋宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极限法球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精气之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力之球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeZ</t>
+  </si>
+  <si>
+    <t>50,80,110,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.75,2.15,2.55,2.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,40,56,72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.14,-0.20,-0.24,-0.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-30,-50,-70,-90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14,16,18,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14,16,18,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14,16,18,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,28,32,36,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,12,14,16,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,12,14,16,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5,6.3,7.2,8.1,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,25,29,32,36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,29,34,38,42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,34,38,43,48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75,1.05,1.2,1.35,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2.8,3.2,3.6,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15,0.16,0.17,0.18,0.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.75,2.45,2.8,3.15,3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,17,19,22,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75,1.05,1.2,1.35,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,10,11,13,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75,1.05,1.2,1.35,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250,350,400,450,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15,0.21,0.24,0.27,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.14,0.16,0.18,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,560,640,720,800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,21,24,27,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3,0.42,0.48,0.54,0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,49,56,63,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,53,61,68,76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,35,40,45,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,63,72,81,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,500,600,700,800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52,73,83,94,104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,112,128,144,160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,35,20,45,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,35,20,45,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>325,400,450,500,525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,31,35,40,44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>425,595,680,765,850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>425,595,680,765,850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,36,42,47,52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,22,26,29,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,22,26,29,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,70,80,90,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,35,40,45,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,59,67,76,84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,84,96,108,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14,16,18,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15,0.21,0.24,0.27,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,77,88,99,110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14,16,18,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14,16,18,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14,16,18,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250,350,400,450,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175,245,280,315,350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175,245,280,315,350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回城特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsCalStatusAmaor</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜叉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漩涡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净魂之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净魂之刃减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗灭减护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天堂缴械(近战)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天堂缴械(远程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰眼(近战)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰眼(远程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒旦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒旦技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔刀锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰歌弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掠夺者之斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣者遗物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避护符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>振奋宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极限法球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量之球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精气之球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力之球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChangeZ</t>
-  </si>
-  <si>
-    <t>50,80,110,140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.75,2.15,2.55,2.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,40,56,72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.14,-0.20,-0.24,-0.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-30,-50,-70,-90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3,4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,8,10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,8,10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,8,10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,14,16,18,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,14,16,18,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,14,16,18,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,28,32,36,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,12,14,16,18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,8,9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,12,14,16,18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,8,9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,8,9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5,6.3,7.2,8.1,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,25,29,32,36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,29,34,38,42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,34,38,43,48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75,1.05,1.2,1.35,1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2.8,3.2,3.6,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15,0.16,0.17,0.18,0.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.75,2.45,2.8,3.15,3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,8,9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,8,10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,17,19,22,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75,1.05,1.2,1.35,1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,10,11,13,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75,1.05,1.2,1.35,1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250,350,400,450,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,8,10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15,0.21,0.24,0.27,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1,0.14,0.16,0.18,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,8,9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,560,640,720,800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,21,24,27,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3,0.42,0.48,0.54,0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,49,56,63,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38,53,61,68,76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,35,40,45,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45,63,72,81,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,500,600,700,800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52,73,83,94,104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,112,128,144,160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,35,20,45,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,35,20,45,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>325,400,450,500,525</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,31,35,40,44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>425,595,680,765,850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>425,595,680,765,850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,36,42,47,52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,22,26,29,32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,22,26,29,32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,70,80,90,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,35,40,45,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,59,67,76,84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,84,96,108,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,14,16,18,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15,0.21,0.24,0.27,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,77,88,99,110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,14,16,18,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,14,16,18,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,14,16,18,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250,350,400,450,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175,245,280,315,350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175,245,280,315,350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景无敌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回城特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5922,9 +5922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O242" sqref="O242"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL210" sqref="AL210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5963,10 +5963,10 @@
         <v>168</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>443</v>
@@ -5981,7 +5981,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>355</v>
@@ -5996,7 +5996,7 @@
         <v>317</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>50</v>
@@ -6238,7 +6238,7 @@
         <v>163</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>522</v>
@@ -6271,7 +6271,7 @@
         <v>44</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>48</v>
@@ -6542,7 +6542,7 @@
         <v>44</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>48</v>
@@ -6846,7 +6846,7 @@
         <v>124</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE4" s="2">
         <v>0</v>
@@ -7117,7 +7117,7 @@
         <v>124</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE5" s="2">
         <v>0</v>
@@ -7388,7 +7388,7 @@
         <v>124</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE6" s="2">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>124</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE7" s="2">
         <v>0</v>
@@ -7930,7 +7930,7 @@
         <v>124</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE8" s="2">
         <v>0</v>
@@ -8201,7 +8201,7 @@
         <v>124</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE9" s="2">
         <v>0</v>
@@ -8472,7 +8472,7 @@
         <v>124</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE10" s="2">
         <v>0</v>
@@ -8743,7 +8743,7 @@
         <v>124</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE11" s="2">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>124</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE12" s="2">
         <v>0</v>
@@ -9285,7 +9285,7 @@
         <v>124</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE13" s="2">
         <v>0</v>
@@ -9309,7 +9309,7 @@
         <v>90</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AM13" s="2">
         <v>0</v>
@@ -9556,7 +9556,7 @@
         <v>124</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE14" s="2">
         <v>0</v>
@@ -9761,7 +9761,7 @@
         <v>124</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>90</v>
@@ -9827,7 +9827,7 @@
         <v>124</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE15" s="2">
         <v>0</v>
@@ -9848,10 +9848,10 @@
         <v>0</v>
       </c>
       <c r="AK15" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="AL15" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="AL15" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="AM15" s="2">
         <v>0</v>
@@ -10098,7 +10098,7 @@
         <v>124</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE16" s="2">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>124</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE17" s="2">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>117</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AE18" s="2">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>124</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE19" s="2">
         <v>0</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG19" s="2" t="s">
         <v>90</v>
@@ -11182,7 +11182,7 @@
         <v>124</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AE20" s="2">
         <v>0</v>
@@ -11206,7 +11206,7 @@
         <v>90</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AM20" s="2" t="s">
         <v>135</v>
@@ -11453,7 +11453,7 @@
         <v>124</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE21" s="2">
         <v>0</v>
@@ -11724,7 +11724,7 @@
         <v>124</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE22" s="2">
         <v>0</v>
@@ -11995,7 +11995,7 @@
         <v>124</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE23" s="2">
         <v>0</v>
@@ -12266,7 +12266,7 @@
         <v>125</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE24" s="2">
         <v>0</v>
@@ -12537,7 +12537,7 @@
         <v>125</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE25" s="2">
         <v>0</v>
@@ -12808,7 +12808,7 @@
         <v>125</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE26" s="2">
         <v>0</v>
@@ -13079,7 +13079,7 @@
         <v>124</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE27" s="2">
         <v>0</v>
@@ -13350,7 +13350,7 @@
         <v>124</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE28" s="2">
         <v>0</v>
@@ -13621,7 +13621,7 @@
         <v>124</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE29" s="2">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>124</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE30" s="2">
         <v>0</v>
@@ -14163,7 +14163,7 @@
         <v>124</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE31" s="2">
         <v>0</v>
@@ -14434,7 +14434,7 @@
         <v>124</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE32" s="2">
         <v>0</v>
@@ -14705,7 +14705,7 @@
         <v>124</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE33" s="2">
         <v>0</v>
@@ -14976,7 +14976,7 @@
         <v>124</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE34" s="2">
         <v>0</v>
@@ -15247,7 +15247,7 @@
         <v>124</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE35" s="2">
         <v>0</v>
@@ -15518,13 +15518,13 @@
         <v>124</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE36" s="2">
         <v>0</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AG36" s="2" t="s">
         <v>90</v>
@@ -15789,7 +15789,7 @@
         <v>124</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE37" s="2">
         <v>0</v>
@@ -16060,7 +16060,7 @@
         <v>124</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE38" s="2">
         <v>0</v>
@@ -16331,7 +16331,7 @@
         <v>124</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE39" s="2">
         <v>0</v>
@@ -16602,7 +16602,7 @@
         <v>124</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE40" s="2">
         <v>0</v>
@@ -16873,7 +16873,7 @@
         <v>124</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE41" s="2">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>125</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE42" s="2">
         <v>0</v>
@@ -17417,7 +17417,7 @@
         <v>124</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE43" s="2">
         <v>0</v>
@@ -17688,7 +17688,7 @@
         <v>124</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE44" s="2">
         <v>0</v>
@@ -17959,7 +17959,7 @@
         <v>124</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE45" s="2">
         <v>0</v>
@@ -18230,7 +18230,7 @@
         <v>124</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE46" s="2">
         <v>0</v>
@@ -18501,7 +18501,7 @@
         <v>125</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE47" s="2">
         <v>0</v>
@@ -18706,7 +18706,7 @@
         <v>124</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>90</v>
@@ -18772,7 +18772,7 @@
         <v>124</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE48" s="2">
         <v>0</v>
@@ -19043,7 +19043,7 @@
         <v>124</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE49" s="2">
         <v>0</v>
@@ -19314,7 +19314,7 @@
         <v>124</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE50" s="2">
         <v>0</v>
@@ -19585,7 +19585,7 @@
         <v>124</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE51" s="2">
         <v>0</v>
@@ -19856,7 +19856,7 @@
         <v>124</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE52" s="2">
         <v>0</v>
@@ -20127,7 +20127,7 @@
         <v>125</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE53" s="2">
         <v>0</v>
@@ -20398,7 +20398,7 @@
         <v>124</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE54" s="2">
         <v>0</v>
@@ -20428,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AO54" s="2">
         <v>0</v>
@@ -20669,7 +20669,7 @@
         <v>124</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE55" s="2">
         <v>0</v>
@@ -20940,7 +20940,7 @@
         <v>124</v>
       </c>
       <c r="AD56" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE56" s="2">
         <v>0</v>
@@ -21482,7 +21482,7 @@
         <v>125</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AE58" s="2">
         <v>0</v>
@@ -22026,7 +22026,7 @@
         <v>124</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE60" s="2">
         <v>0</v>
@@ -22568,7 +22568,7 @@
         <v>124</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE62" s="2">
         <v>0</v>
@@ -22839,7 +22839,7 @@
         <v>124</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE63" s="2">
         <v>0</v>
@@ -23110,7 +23110,7 @@
         <v>125</v>
       </c>
       <c r="AD64" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE64" s="2">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>124</v>
       </c>
       <c r="AD65" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE65" s="2">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         <v>124</v>
       </c>
       <c r="AD66" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE66" s="2">
         <v>0</v>
@@ -23923,7 +23923,7 @@
         <v>124</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE67" s="2">
         <v>0</v>
@@ -24194,7 +24194,7 @@
         <v>124</v>
       </c>
       <c r="AD68" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE68" s="2">
         <v>0</v>
@@ -24465,7 +24465,7 @@
         <v>124</v>
       </c>
       <c r="AD69" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE69" s="2">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>124</v>
       </c>
       <c r="AD70" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE70" s="2">
         <v>0</v>
@@ -25007,7 +25007,7 @@
         <v>124</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE71" s="2">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>124</v>
       </c>
       <c r="AD72" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE72" s="2">
         <v>0</v>
@@ -25483,7 +25483,7 @@
         <v>124</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>90</v>
@@ -25549,7 +25549,7 @@
         <v>124</v>
       </c>
       <c r="AD73" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE73" s="2">
         <v>0</v>
@@ -25820,7 +25820,7 @@
         <v>124</v>
       </c>
       <c r="AD74" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE74" s="2">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>124</v>
       </c>
       <c r="AD75" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE75" s="2">
         <v>0</v>
@@ -26362,7 +26362,7 @@
         <v>124</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE76" s="2">
         <v>0</v>
@@ -26633,7 +26633,7 @@
         <v>124</v>
       </c>
       <c r="AD77" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE77" s="2">
         <v>0</v>
@@ -26904,7 +26904,7 @@
         <v>124</v>
       </c>
       <c r="AD78" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE78" s="2">
         <v>0</v>
@@ -27175,7 +27175,7 @@
         <v>124</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE79" s="2">
         <v>0</v>
@@ -27446,7 +27446,7 @@
         <v>124</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE80" s="2">
         <v>0</v>
@@ -27717,7 +27717,7 @@
         <v>124</v>
       </c>
       <c r="AD81" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE81" s="2">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>124</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE82" s="2">
         <v>0</v>
@@ -28259,7 +28259,7 @@
         <v>124</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE83" s="2">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>124</v>
       </c>
       <c r="AD84" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE84" s="2">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>124</v>
       </c>
       <c r="AD85" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE85" s="2">
         <v>0</v>
@@ -29072,7 +29072,7 @@
         <v>124</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE86" s="2">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>124</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE87" s="2">
         <v>0</v>
@@ -29614,7 +29614,7 @@
         <v>124</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE88" s="2">
         <v>0</v>
@@ -29753,7 +29753,7 @@
         <v>1</v>
       </c>
       <c r="BY88" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="BZ88" s="2" t="s">
         <v>90</v>
@@ -29885,7 +29885,7 @@
         <v>124</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE89" s="2">
         <v>0</v>
@@ -30156,7 +30156,7 @@
         <v>124</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE90" s="2">
         <v>0</v>
@@ -30427,7 +30427,7 @@
         <v>124</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE91" s="2">
         <v>0</v>
@@ -30698,7 +30698,7 @@
         <v>124</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE92" s="2">
         <v>0</v>
@@ -30969,7 +30969,7 @@
         <v>124</v>
       </c>
       <c r="AD93" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE93" s="2">
         <v>0</v>
@@ -31240,7 +31240,7 @@
         <v>124</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE94" s="2">
         <v>0</v>
@@ -31511,7 +31511,7 @@
         <v>124</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE95" s="2">
         <v>0</v>
@@ -31523,7 +31523,7 @@
         <v>90</v>
       </c>
       <c r="AH95" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AI95" s="2">
         <v>0</v>
@@ -31782,7 +31782,7 @@
         <v>124</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE96" s="2">
         <v>0</v>
@@ -31800,7 +31800,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AK96" s="2" t="s">
         <v>90</v>
@@ -31972,7 +31972,7 @@
         <v>428</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>405</v>
@@ -32053,7 +32053,7 @@
         <v>124</v>
       </c>
       <c r="AD97" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE97" s="2">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>403</v>
       </c>
       <c r="AI97" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AJ97" s="2" t="s">
         <v>403</v>
@@ -32243,7 +32243,7 @@
         <v>429</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>405</v>
@@ -32324,7 +32324,7 @@
         <v>124</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE98" s="2">
         <v>0</v>
@@ -32336,13 +32336,13 @@
         <v>90</v>
       </c>
       <c r="AH98" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI98" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="AI98" s="2" t="s">
-        <v>750</v>
-      </c>
       <c r="AJ98" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AK98" s="2" t="s">
         <v>90</v>
@@ -32514,7 +32514,7 @@
         <v>430</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>405</v>
@@ -32595,7 +32595,7 @@
         <v>124</v>
       </c>
       <c r="AD99" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE99" s="2">
         <v>0</v>
@@ -32607,7 +32607,7 @@
         <v>90</v>
       </c>
       <c r="AH99" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AI99" s="2">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>431</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>405</v>
@@ -32866,7 +32866,7 @@
         <v>124</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE100" s="2">
         <v>0</v>
@@ -32884,7 +32884,7 @@
         <v>403</v>
       </c>
       <c r="AJ100" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AK100" s="2" t="s">
         <v>90</v>
@@ -33056,7 +33056,7 @@
         <v>432</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>405</v>
@@ -33137,7 +33137,7 @@
         <v>124</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE101" s="2">
         <v>0</v>
@@ -33152,7 +33152,7 @@
         <v>403</v>
       </c>
       <c r="AI101" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AJ101" s="2" t="s">
         <v>403</v>
@@ -33327,7 +33327,7 @@
         <v>434</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>405</v>
@@ -33408,7 +33408,7 @@
         <v>124</v>
       </c>
       <c r="AD102" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE102" s="2">
         <v>0</v>
@@ -33420,7 +33420,7 @@
         <v>90</v>
       </c>
       <c r="AH102" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AI102" s="2">
         <v>0</v>
@@ -33598,7 +33598,7 @@
         <v>435</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>405</v>
@@ -33679,7 +33679,7 @@
         <v>124</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE103" s="2">
         <v>0</v>
@@ -33697,7 +33697,7 @@
         <v>403</v>
       </c>
       <c r="AJ103" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AK103" s="2" t="s">
         <v>90</v>
@@ -33869,7 +33869,7 @@
         <v>436</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>405</v>
@@ -33950,7 +33950,7 @@
         <v>124</v>
       </c>
       <c r="AD104" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE104" s="2">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>403</v>
       </c>
       <c r="AI104" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AJ104" s="2" t="s">
         <v>403</v>
@@ -34140,7 +34140,7 @@
         <v>437</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>405</v>
@@ -34221,7 +34221,7 @@
         <v>124</v>
       </c>
       <c r="AD105" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE105" s="2">
         <v>0</v>
@@ -34275,7 +34275,7 @@
         <v>0</v>
       </c>
       <c r="AV105" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AW105" s="2" t="s">
         <v>42</v>
@@ -34411,7 +34411,7 @@
         <v>444</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>405</v>
@@ -34492,7 +34492,7 @@
         <v>124</v>
       </c>
       <c r="AD106" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE106" s="2">
         <v>0</v>
@@ -34653,7 +34653,7 @@
         <v>442</v>
       </c>
       <c r="CG106" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="CH106" s="2" t="s">
         <v>90</v>
@@ -34682,7 +34682,7 @@
         <v>445</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>405</v>
@@ -34763,7 +34763,7 @@
         <v>124</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE107" s="2">
         <v>0</v>
@@ -34924,7 +34924,7 @@
         <v>442</v>
       </c>
       <c r="CG107" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="CH107" s="2" t="s">
         <v>90</v>
@@ -34953,7 +34953,7 @@
         <v>447</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D108" s="2">
         <v>1</v>
@@ -35034,7 +35034,7 @@
         <v>124</v>
       </c>
       <c r="AD108" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE108" s="2">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>1</v>
       </c>
       <c r="BY108" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="BZ108" s="2" t="s">
         <v>90</v>
@@ -35224,7 +35224,7 @@
         <v>450</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>405</v>
@@ -35305,7 +35305,7 @@
         <v>124</v>
       </c>
       <c r="AD109" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE109" s="2">
         <v>0</v>
@@ -35335,7 +35335,7 @@
         <v>0</v>
       </c>
       <c r="AN109" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AO109" s="2">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>451</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>405</v>
@@ -35576,7 +35576,7 @@
         <v>124</v>
       </c>
       <c r="AD110" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE110" s="2">
         <v>0</v>
@@ -35630,7 +35630,7 @@
         <v>0</v>
       </c>
       <c r="AV110" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW110" s="2" t="s">
         <v>42</v>
@@ -35766,7 +35766,7 @@
         <v>454</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>405</v>
@@ -35847,7 +35847,7 @@
         <v>124</v>
       </c>
       <c r="AD111" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE111" s="2">
         <v>0</v>
@@ -35871,13 +35871,13 @@
         <v>90</v>
       </c>
       <c r="AL111" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AM111" s="2">
         <v>0</v>
       </c>
       <c r="AN111" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AO111" s="2">
         <v>0</v>
@@ -36037,7 +36037,7 @@
         <v>455</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>405</v>
@@ -36118,7 +36118,7 @@
         <v>124</v>
       </c>
       <c r="AD112" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE112" s="2">
         <v>0</v>
@@ -36172,22 +36172,22 @@
         <v>0</v>
       </c>
       <c r="AV112" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="AW112" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX112" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY112" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ112" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA112" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="AW112" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX112" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY112" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ112" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA112" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="BB112" s="2" t="s">
         <v>42</v>
@@ -36308,7 +36308,7 @@
         <v>457</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>405</v>
@@ -36389,7 +36389,7 @@
         <v>124</v>
       </c>
       <c r="AD113" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE113" s="2">
         <v>0</v>
@@ -36419,7 +36419,7 @@
         <v>0</v>
       </c>
       <c r="AN113" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AO113" s="2">
         <v>0</v>
@@ -36579,7 +36579,7 @@
         <v>458</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>405</v>
@@ -36660,7 +36660,7 @@
         <v>124</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE114" s="2">
         <v>0</v>
@@ -36690,7 +36690,7 @@
         <v>0</v>
       </c>
       <c r="AN114" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AO114" s="2">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>459</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>405</v>
@@ -36931,7 +36931,7 @@
         <v>124</v>
       </c>
       <c r="AD115" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE115" s="2">
         <v>0</v>
@@ -36961,7 +36961,7 @@
         <v>0</v>
       </c>
       <c r="AN115" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AO115" s="2">
         <v>0</v>
@@ -37121,7 +37121,7 @@
         <v>460</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>405</v>
@@ -37202,7 +37202,7 @@
         <v>124</v>
       </c>
       <c r="AD116" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE116" s="2">
         <v>0</v>
@@ -37250,7 +37250,7 @@
         <v>0</v>
       </c>
       <c r="AT116" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AU116" s="2">
         <v>0</v>
@@ -37392,7 +37392,7 @@
         <v>461</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>405</v>
@@ -37473,7 +37473,7 @@
         <v>124</v>
       </c>
       <c r="AD117" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE117" s="2">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="BA117" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="BB117" s="2" t="s">
         <v>42</v>
@@ -37663,7 +37663,7 @@
         <v>463</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>67</v>
@@ -37744,7 +37744,7 @@
         <v>124</v>
       </c>
       <c r="AD118" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE118" s="2">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="AP118" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AQ118" s="2">
         <v>0</v>
@@ -37934,7 +37934,7 @@
         <v>464</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>405</v>
@@ -38015,7 +38015,7 @@
         <v>124</v>
       </c>
       <c r="AD119" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE119" s="2">
         <v>0</v>
@@ -38039,7 +38039,7 @@
         <v>90</v>
       </c>
       <c r="AL119" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AM119" s="2">
         <v>0</v>
@@ -38205,7 +38205,7 @@
         <v>465</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>405</v>
@@ -38286,7 +38286,7 @@
         <v>124</v>
       </c>
       <c r="AD120" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE120" s="2">
         <v>0</v>
@@ -38343,7 +38343,7 @@
         <v>0</v>
       </c>
       <c r="AW120" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AX120" s="2">
         <v>0</v>
@@ -38476,7 +38476,7 @@
         <v>466</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>405</v>
@@ -38557,7 +38557,7 @@
         <v>124</v>
       </c>
       <c r="AD121" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE121" s="2">
         <v>0</v>
@@ -38626,7 +38626,7 @@
         <v>0</v>
       </c>
       <c r="BA121" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="BB121" s="2" t="s">
         <v>42</v>
@@ -38747,7 +38747,7 @@
         <v>468</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>405</v>
@@ -38828,7 +38828,7 @@
         <v>124</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE122" s="2">
         <v>0</v>
@@ -38876,7 +38876,7 @@
         <v>0</v>
       </c>
       <c r="AT122" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU122" s="2">
         <v>0</v>
@@ -39018,7 +39018,7 @@
         <v>469</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>405</v>
@@ -39099,7 +39099,7 @@
         <v>124</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE123" s="2">
         <v>0</v>
@@ -39111,13 +39111,13 @@
         <v>90</v>
       </c>
       <c r="AH123" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AI123" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AJ123" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AK123" s="2" t="s">
         <v>90</v>
@@ -39289,7 +39289,7 @@
         <v>470</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D124" s="2">
         <v>1</v>
@@ -39370,7 +39370,7 @@
         <v>124</v>
       </c>
       <c r="AD124" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE124" s="2">
         <v>0</v>
@@ -39560,7 +39560,7 @@
         <v>471</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>405</v>
@@ -39641,7 +39641,7 @@
         <v>124</v>
       </c>
       <c r="AD125" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE125" s="2">
         <v>0</v>
@@ -39659,7 +39659,7 @@
         <v>472</v>
       </c>
       <c r="AJ125" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AK125" s="2" t="s">
         <v>90</v>
@@ -39831,7 +39831,7 @@
         <v>473</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>405</v>
@@ -39912,7 +39912,7 @@
         <v>124</v>
       </c>
       <c r="AD126" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE126" s="2">
         <v>0</v>
@@ -39927,7 +39927,7 @@
         <v>426</v>
       </c>
       <c r="AI126" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AJ126" s="2" t="s">
         <v>426</v>
@@ -40102,7 +40102,7 @@
         <v>475</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>405</v>
@@ -40183,7 +40183,7 @@
         <v>124</v>
       </c>
       <c r="AD127" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE127" s="2">
         <v>0</v>
@@ -40195,7 +40195,7 @@
         <v>90</v>
       </c>
       <c r="AH127" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AI127" s="2" t="s">
         <v>426</v>
@@ -40373,7 +40373,7 @@
         <v>478</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>405</v>
@@ -40454,7 +40454,7 @@
         <v>124</v>
       </c>
       <c r="AD128" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE128" s="2">
         <v>0</v>
@@ -40484,7 +40484,7 @@
         <v>0</v>
       </c>
       <c r="AN128" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AO128" s="2">
         <v>0</v>
@@ -40644,7 +40644,7 @@
         <v>480</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>405</v>
@@ -40725,7 +40725,7 @@
         <v>124</v>
       </c>
       <c r="AD129" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE129" s="2">
         <v>0</v>
@@ -40755,7 +40755,7 @@
         <v>0</v>
       </c>
       <c r="AN129" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AO129" s="2">
         <v>0</v>
@@ -40915,7 +40915,7 @@
         <v>481</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>405</v>
@@ -40996,7 +40996,7 @@
         <v>405</v>
       </c>
       <c r="AD130" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AE130" s="2">
         <v>0</v>
@@ -41186,7 +41186,7 @@
         <v>482</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>405</v>
@@ -41267,7 +41267,7 @@
         <v>405</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AE131" s="2">
         <v>0</v>
@@ -41303,7 +41303,7 @@
         <v>0</v>
       </c>
       <c r="AP131" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AQ131" s="2" t="s">
         <v>403</v>
@@ -41457,7 +41457,7 @@
         <v>484</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>405</v>
@@ -41538,7 +41538,7 @@
         <v>124</v>
       </c>
       <c r="AD132" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE132" s="2">
         <v>0</v>
@@ -41547,7 +41547,7 @@
         <v>425</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AH132" s="2" t="s">
         <v>403</v>
@@ -41728,7 +41728,7 @@
         <v>486</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>405</v>
@@ -41809,7 +41809,7 @@
         <v>124</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AE133" s="2">
         <v>0</v>
@@ -41824,7 +41824,7 @@
         <v>403</v>
       </c>
       <c r="AI133" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AJ133" s="2" t="s">
         <v>403</v>
@@ -41833,13 +41833,13 @@
         <v>90</v>
       </c>
       <c r="AL133" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AM133" s="2">
         <v>0</v>
       </c>
       <c r="AN133" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AO133" s="2">
         <v>0</v>
@@ -41999,7 +41999,7 @@
         <v>488</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>405</v>
@@ -42080,7 +42080,7 @@
         <v>124</v>
       </c>
       <c r="AD134" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE134" s="2">
         <v>0</v>
@@ -42128,7 +42128,7 @@
         <v>0</v>
       </c>
       <c r="AT134" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AU134" s="2">
         <v>0</v>
@@ -42149,7 +42149,7 @@
         <v>0</v>
       </c>
       <c r="BA134" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="BB134" s="2" t="s">
         <v>42</v>
@@ -42270,7 +42270,7 @@
         <v>489</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>521</v>
@@ -42351,7 +42351,7 @@
         <v>124</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE135" s="2">
         <v>0</v>
@@ -42381,7 +42381,7 @@
         <v>0</v>
       </c>
       <c r="AN135" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AO135" s="2">
         <v>0</v>
@@ -42399,7 +42399,7 @@
         <v>0</v>
       </c>
       <c r="AT135" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AU135" s="2">
         <v>0</v>
@@ -42541,7 +42541,7 @@
         <v>493</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>405</v>
@@ -42622,7 +42622,7 @@
         <v>124</v>
       </c>
       <c r="AD136" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE136" s="2">
         <v>0</v>
@@ -42634,13 +42634,13 @@
         <v>90</v>
       </c>
       <c r="AH136" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AI136" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AJ136" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AK136" s="2" t="s">
         <v>90</v>
@@ -42812,7 +42812,7 @@
         <v>494</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>41</v>
@@ -42893,7 +42893,7 @@
         <v>124</v>
       </c>
       <c r="AD137" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE137" s="2">
         <v>0</v>
@@ -43083,7 +43083,7 @@
         <v>496</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>405</v>
@@ -43164,7 +43164,7 @@
         <v>124</v>
       </c>
       <c r="AD138" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE138" s="2">
         <v>0</v>
@@ -43176,13 +43176,13 @@
         <v>90</v>
       </c>
       <c r="AH138" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AI138" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AJ138" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AK138" s="2" t="s">
         <v>90</v>
@@ -43218,7 +43218,7 @@
         <v>0</v>
       </c>
       <c r="AV138" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW138" s="2" t="s">
         <v>467</v>
@@ -43354,7 +43354,7 @@
         <v>497</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>41</v>
@@ -43435,7 +43435,7 @@
         <v>124</v>
       </c>
       <c r="AD139" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE139" s="2">
         <v>0</v>
@@ -43625,7 +43625,7 @@
         <v>499</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>405</v>
@@ -43706,7 +43706,7 @@
         <v>124</v>
       </c>
       <c r="AD140" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE140" s="2">
         <v>0</v>
@@ -43754,13 +43754,13 @@
         <v>0</v>
       </c>
       <c r="AT140" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="AU140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV140" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="AU140" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV140" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="AW140" s="2" t="s">
         <v>467</v>
@@ -43896,7 +43896,7 @@
         <v>502</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>41</v>
@@ -43977,7 +43977,7 @@
         <v>124</v>
       </c>
       <c r="AD141" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE141" s="2">
         <v>0</v>
@@ -44167,7 +44167,7 @@
         <v>504</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>41</v>
@@ -44248,7 +44248,7 @@
         <v>124</v>
       </c>
       <c r="AD142" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE142" s="2">
         <v>0</v>
@@ -44438,7 +44438,7 @@
         <v>506</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>41</v>
@@ -44519,7 +44519,7 @@
         <v>124</v>
       </c>
       <c r="AD143" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE143" s="2">
         <v>0</v>
@@ -44709,7 +44709,7 @@
         <v>508</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>405</v>
@@ -44790,7 +44790,7 @@
         <v>124</v>
       </c>
       <c r="AD144" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE144" s="2">
         <v>0</v>
@@ -44826,7 +44826,7 @@
         <v>0</v>
       </c>
       <c r="AP144" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AQ144" s="2">
         <v>0</v>
@@ -44957,7 +44957,7 @@
         <v>42</v>
       </c>
       <c r="CI144" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="CJ144" s="2" t="s">
         <v>90</v>
@@ -44980,7 +44980,7 @@
         <v>513</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>520</v>
@@ -45061,7 +45061,7 @@
         <v>124</v>
       </c>
       <c r="AD145" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE145" s="2">
         <v>0</v>
@@ -45073,13 +45073,13 @@
         <v>90</v>
       </c>
       <c r="AH145" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AI145" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AJ145" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AK145" s="2" t="s">
         <v>90</v>
@@ -45251,7 +45251,7 @@
         <v>515</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>519</v>
@@ -45332,7 +45332,7 @@
         <v>124</v>
       </c>
       <c r="AD146" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE146" s="2">
         <v>0</v>
@@ -45522,7 +45522,7 @@
         <v>527</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>519</v>
@@ -45603,7 +45603,7 @@
         <v>124</v>
       </c>
       <c r="AD147" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE147" s="2">
         <v>0</v>
@@ -45720,7 +45720,7 @@
         <v>94</v>
       </c>
       <c r="BQ147" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="BR147" s="2" t="s">
         <v>90</v>
@@ -45793,7 +45793,7 @@
         <v>528</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>519</v>
@@ -45874,7 +45874,7 @@
         <v>124</v>
       </c>
       <c r="AD148" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE148" s="2">
         <v>0</v>
@@ -45991,7 +45991,7 @@
         <v>94</v>
       </c>
       <c r="BQ148" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="BR148" s="2" t="s">
         <v>90</v>
@@ -46064,7 +46064,7 @@
         <v>531</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>48</v>
@@ -46145,7 +46145,7 @@
         <v>124</v>
       </c>
       <c r="AD149" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE149" s="2">
         <v>0</v>
@@ -46157,13 +46157,13 @@
         <v>90</v>
       </c>
       <c r="AH149" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AI149" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AJ149" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AK149" s="2" t="s">
         <v>90</v>
@@ -46193,13 +46193,13 @@
         <v>0</v>
       </c>
       <c r="AT149" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AU149" s="2">
         <v>0</v>
       </c>
       <c r="AV149" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AW149" s="2" t="s">
         <v>42</v>
@@ -46335,7 +46335,7 @@
         <v>533</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>41</v>
@@ -46416,7 +46416,7 @@
         <v>124</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE150" s="2">
         <v>0</v>
@@ -46606,7 +46606,7 @@
         <v>537</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>48</v>
@@ -46687,7 +46687,7 @@
         <v>124</v>
       </c>
       <c r="AD151" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE151" s="2">
         <v>0</v>
@@ -46877,7 +46877,7 @@
         <v>539</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>41</v>
@@ -46958,7 +46958,7 @@
         <v>124</v>
       </c>
       <c r="AD152" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE152" s="2">
         <v>0</v>
@@ -47148,7 +47148,7 @@
         <v>544</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>41</v>
@@ -47229,7 +47229,7 @@
         <v>124</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE153" s="2">
         <v>0</v>
@@ -47399,7 +47399,7 @@
         <v>90</v>
       </c>
       <c r="CJ153" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="CK153" s="2" t="s">
         <v>90</v>
@@ -47419,7 +47419,7 @@
         <v>545</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>48</v>
@@ -47500,7 +47500,7 @@
         <v>124</v>
       </c>
       <c r="AD154" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE154" s="2">
         <v>0</v>
@@ -47515,7 +47515,7 @@
         <v>42</v>
       </c>
       <c r="AI154" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AJ154" s="2" t="s">
         <v>42</v>
@@ -47690,7 +47690,7 @@
         <v>547</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>48</v>
@@ -47771,7 +47771,7 @@
         <v>124</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE155" s="2">
         <v>0</v>
@@ -47786,7 +47786,7 @@
         <v>267</v>
       </c>
       <c r="AI155" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AJ155" s="2" t="s">
         <v>267</v>
@@ -47961,7 +47961,7 @@
         <v>549</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>41</v>
@@ -48042,7 +48042,7 @@
         <v>124</v>
       </c>
       <c r="AD156" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE156" s="2">
         <v>0</v>
@@ -48232,7 +48232,7 @@
         <v>551</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>48</v>
@@ -48313,7 +48313,7 @@
         <v>124</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE157" s="2">
         <v>0</v>
@@ -48503,7 +48503,7 @@
         <v>554</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>48</v>
@@ -48584,7 +48584,7 @@
         <v>124</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE158" s="2">
         <v>0</v>
@@ -48599,7 +48599,7 @@
         <v>42</v>
       </c>
       <c r="AI158" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AJ158" s="2" t="s">
         <v>42</v>
@@ -48774,7 +48774,7 @@
         <v>559</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D159" s="2">
         <v>1</v>
@@ -48855,7 +48855,7 @@
         <v>124</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE159" s="2">
         <v>0</v>
@@ -49045,7 +49045,7 @@
         <v>560</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D160" s="2">
         <v>1</v>
@@ -49126,7 +49126,7 @@
         <v>124</v>
       </c>
       <c r="AD160" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE160" s="2">
         <v>0</v>
@@ -49316,7 +49316,7 @@
         <v>564</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>48</v>
@@ -49397,7 +49397,7 @@
         <v>124</v>
       </c>
       <c r="AD161" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE161" s="2">
         <v>0</v>
@@ -49412,7 +49412,7 @@
         <v>73</v>
       </c>
       <c r="AI161" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AJ161" s="2" t="s">
         <v>73</v>
@@ -49587,7 +49587,7 @@
         <v>565</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D162" s="2">
         <v>1</v>
@@ -49668,7 +49668,7 @@
         <v>124</v>
       </c>
       <c r="AD162" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE162" s="2">
         <v>0</v>
@@ -49858,7 +49858,7 @@
         <v>568</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>48</v>
@@ -49939,7 +49939,7 @@
         <v>124</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE163" s="2">
         <v>0</v>
@@ -50129,7 +50129,7 @@
         <v>571</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>48</v>
@@ -50210,7 +50210,7 @@
         <v>124</v>
       </c>
       <c r="AD164" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE164" s="2">
         <v>0</v>
@@ -50400,7 +50400,7 @@
         <v>574</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D165" s="2">
         <v>1</v>
@@ -50481,7 +50481,7 @@
         <v>124</v>
       </c>
       <c r="AD165" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE165" s="2">
         <v>0</v>
@@ -50604,7 +50604,7 @@
         <v>90</v>
       </c>
       <c r="BS165" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="BT165" s="2" t="s">
         <v>90</v>
@@ -50671,7 +50671,7 @@
         <v>576</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>48</v>
@@ -50752,7 +50752,7 @@
         <v>124</v>
       </c>
       <c r="AD166" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE166" s="2">
         <v>0</v>
@@ -50942,7 +50942,7 @@
         <v>577</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>48</v>
@@ -51023,7 +51023,7 @@
         <v>124</v>
       </c>
       <c r="AD167" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE167" s="2">
         <v>0</v>
@@ -51038,7 +51038,7 @@
         <v>73</v>
       </c>
       <c r="AI167" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AJ167" s="2" t="s">
         <v>73</v>
@@ -51213,7 +51213,7 @@
         <v>578</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D168" s="2">
         <v>1</v>
@@ -51294,7 +51294,7 @@
         <v>124</v>
       </c>
       <c r="AD168" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE168" s="2">
         <v>0</v>
@@ -51484,7 +51484,7 @@
         <v>580</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>48</v>
@@ -51565,7 +51565,7 @@
         <v>124</v>
       </c>
       <c r="AD169" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE169" s="2">
         <v>0</v>
@@ -51595,7 +51595,7 @@
         <v>0</v>
       </c>
       <c r="AN169" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AO169" s="2">
         <v>0</v>
@@ -51755,7 +51755,7 @@
         <v>581</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>48</v>
@@ -51836,7 +51836,7 @@
         <v>124</v>
       </c>
       <c r="AD170" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE170" s="2">
         <v>0</v>
@@ -51866,7 +51866,7 @@
         <v>0</v>
       </c>
       <c r="AN170" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AO170" s="2">
         <v>0</v>
@@ -52026,7 +52026,7 @@
         <v>582</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D171" s="2">
         <v>1</v>
@@ -52107,7 +52107,7 @@
         <v>124</v>
       </c>
       <c r="AD171" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE171" s="2">
         <v>0</v>
@@ -52297,7 +52297,7 @@
         <v>584</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>48</v>
@@ -52378,7 +52378,7 @@
         <v>124</v>
       </c>
       <c r="AD172" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE172" s="2">
         <v>0</v>
@@ -52408,7 +52408,7 @@
         <v>0</v>
       </c>
       <c r="AN172" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AO172" s="2">
         <v>0</v>
@@ -52568,7 +52568,7 @@
         <v>587</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>588</v>
@@ -52649,7 +52649,7 @@
         <v>124</v>
       </c>
       <c r="AD173" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE173" s="2">
         <v>0</v>
@@ -52839,7 +52839,7 @@
         <v>591</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>48</v>
@@ -52920,7 +52920,7 @@
         <v>124</v>
       </c>
       <c r="AD174" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE174" s="2">
         <v>0</v>
@@ -53110,7 +53110,7 @@
         <v>593</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D175" s="2">
         <v>1</v>
@@ -53191,7 +53191,7 @@
         <v>124</v>
       </c>
       <c r="AD175" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE175" s="2">
         <v>0</v>
@@ -53381,7 +53381,7 @@
         <v>594</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D176" s="2">
         <v>1</v>
@@ -53462,7 +53462,7 @@
         <v>124</v>
       </c>
       <c r="AD176" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE176" s="2">
         <v>0</v>
@@ -53601,7 +53601,7 @@
         <v>562</v>
       </c>
       <c r="BY176" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="BZ176" s="2" t="s">
         <v>90</v>
@@ -53652,7 +53652,7 @@
         <v>596</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D177" s="2">
         <v>1</v>
@@ -53667,7 +53667,7 @@
         <v>124</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I177" s="2" t="s">
         <v>90</v>
@@ -53733,7 +53733,7 @@
         <v>124</v>
       </c>
       <c r="AD177" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE177" s="2">
         <v>0</v>
@@ -53923,7 +53923,7 @@
         <v>597</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>48</v>
@@ -54004,7 +54004,7 @@
         <v>124</v>
       </c>
       <c r="AD178" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE178" s="2">
         <v>0</v>
@@ -54034,7 +54034,7 @@
         <v>0</v>
       </c>
       <c r="AN178" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AO178" s="2">
         <v>0</v>
@@ -54194,7 +54194,7 @@
         <v>599</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>48</v>
@@ -54275,7 +54275,7 @@
         <v>124</v>
       </c>
       <c r="AD179" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE179" s="2">
         <v>0</v>
@@ -54305,7 +54305,7 @@
         <v>0</v>
       </c>
       <c r="AN179" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AO179" s="2">
         <v>0</v>
@@ -54465,7 +54465,7 @@
         <v>600</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>48</v>
@@ -54546,7 +54546,7 @@
         <v>124</v>
       </c>
       <c r="AD180" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE180" s="2">
         <v>0</v>
@@ -54576,7 +54576,7 @@
         <v>0</v>
       </c>
       <c r="AN180" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AO180" s="2">
         <v>0</v>
@@ -54736,7 +54736,7 @@
         <v>604</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>48</v>
@@ -54817,7 +54817,7 @@
         <v>124</v>
       </c>
       <c r="AD181" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE181" s="2">
         <v>0</v>
@@ -54847,7 +54847,7 @@
         <v>0</v>
       </c>
       <c r="AN181" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AO181" s="2">
         <v>0</v>
@@ -55007,7 +55007,7 @@
         <v>606</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>48</v>
@@ -55088,7 +55088,7 @@
         <v>124</v>
       </c>
       <c r="AD182" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE182" s="2">
         <v>0</v>
@@ -55278,7 +55278,7 @@
         <v>607</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>48</v>
@@ -55359,7 +55359,7 @@
         <v>124</v>
       </c>
       <c r="AD183" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE183" s="2">
         <v>0</v>
@@ -55549,7 +55549,7 @@
         <v>610</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D184" s="2">
         <v>1</v>
@@ -55630,7 +55630,7 @@
         <v>124</v>
       </c>
       <c r="AD184" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE184" s="2">
         <v>0</v>
@@ -55820,7 +55820,7 @@
         <v>612</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>48</v>
@@ -55901,7 +55901,7 @@
         <v>124</v>
       </c>
       <c r="AD185" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE185" s="2">
         <v>0</v>
@@ -56091,7 +56091,7 @@
         <v>615</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>41</v>
@@ -56172,7 +56172,7 @@
         <v>124</v>
       </c>
       <c r="AD186" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE186" s="2">
         <v>0</v>
@@ -56342,7 +56342,7 @@
         <v>90</v>
       </c>
       <c r="CJ186" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="CK186" s="2" t="s">
         <v>90</v>
@@ -56362,7 +56362,7 @@
         <v>616</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>48</v>
@@ -56443,7 +56443,7 @@
         <v>124</v>
       </c>
       <c r="AD187" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE187" s="2">
         <v>0</v>
@@ -56473,7 +56473,7 @@
         <v>0</v>
       </c>
       <c r="AN187" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AO187" s="2">
         <v>0</v>
@@ -56633,7 +56633,7 @@
         <v>619</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>41</v>
@@ -56714,7 +56714,7 @@
         <v>124</v>
       </c>
       <c r="AD188" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE188" s="2">
         <v>0</v>
@@ -56904,7 +56904,7 @@
         <v>620</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>48</v>
@@ -56985,7 +56985,7 @@
         <v>124</v>
       </c>
       <c r="AD189" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE189" s="2">
         <v>0</v>
@@ -57149,7 +57149,7 @@
         <v>90</v>
       </c>
       <c r="CH189" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="CI189" s="2" t="s">
         <v>90</v>
@@ -57175,7 +57175,7 @@
         <v>622</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>48</v>
@@ -57256,7 +57256,7 @@
         <v>124</v>
       </c>
       <c r="AD190" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE190" s="2">
         <v>0</v>
@@ -57420,10 +57420,10 @@
         <v>90</v>
       </c>
       <c r="CH190" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="CI190" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="CI190" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="CJ190" s="2" t="s">
         <v>90</v>
@@ -57446,7 +57446,7 @@
         <v>623</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>48</v>
@@ -57527,7 +57527,7 @@
         <v>124</v>
       </c>
       <c r="AD191" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE191" s="2">
         <v>0</v>
@@ -57557,7 +57557,7 @@
         <v>0</v>
       </c>
       <c r="AN191" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AO191" s="2">
         <v>0</v>
@@ -57717,7 +57717,7 @@
         <v>624</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D192" s="2">
         <v>1</v>
@@ -57798,7 +57798,7 @@
         <v>124</v>
       </c>
       <c r="AD192" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE192" s="2">
         <v>0</v>
@@ -57988,7 +57988,7 @@
         <v>627</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>48</v>
@@ -58069,7 +58069,7 @@
         <v>124</v>
       </c>
       <c r="AD193" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE193" s="2">
         <v>0</v>
@@ -58259,7 +58259,7 @@
         <v>629</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>41</v>
@@ -58340,7 +58340,7 @@
         <v>124</v>
       </c>
       <c r="AD194" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE194" s="2">
         <v>0</v>
@@ -58530,7 +58530,7 @@
         <v>632</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D195" s="2">
         <v>1</v>
@@ -58611,7 +58611,7 @@
         <v>124</v>
       </c>
       <c r="AD195" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE195" s="2">
         <v>0</v>
@@ -58801,7 +58801,7 @@
         <v>633</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>48</v>
@@ -58882,7 +58882,7 @@
         <v>124</v>
       </c>
       <c r="AD196" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE196" s="2">
         <v>0</v>
@@ -58900,7 +58900,7 @@
         <v>634</v>
       </c>
       <c r="AJ196" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AK196" s="2" t="s">
         <v>90</v>
@@ -58918,7 +58918,7 @@
         <v>0</v>
       </c>
       <c r="AP196" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AQ196" s="2" t="s">
         <v>216</v>
@@ -59072,7 +59072,7 @@
         <v>636</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D197" s="2">
         <v>1</v>
@@ -59153,7 +59153,7 @@
         <v>124</v>
       </c>
       <c r="AD197" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE197" s="2">
         <v>0</v>
@@ -59343,7 +59343,7 @@
         <v>637</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D198" s="2">
         <v>1</v>
@@ -59424,7 +59424,7 @@
         <v>124</v>
       </c>
       <c r="AD198" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE198" s="2">
         <v>0</v>
@@ -59614,7 +59614,7 @@
         <v>639</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>48</v>
@@ -59695,7 +59695,7 @@
         <v>124</v>
       </c>
       <c r="AD199" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE199" s="2">
         <v>0</v>
@@ -59885,7 +59885,7 @@
         <v>644</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>48</v>
@@ -59966,7 +59966,7 @@
         <v>124</v>
       </c>
       <c r="AD200" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE200" s="2">
         <v>0</v>
@@ -60156,7 +60156,7 @@
         <v>649</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>48</v>
@@ -60237,7 +60237,7 @@
         <v>124</v>
       </c>
       <c r="AD201" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE201" s="2">
         <v>0</v>
@@ -60291,7 +60291,7 @@
         <v>0</v>
       </c>
       <c r="AV201" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AW201" s="2" t="s">
         <v>42</v>
@@ -60427,7 +60427,7 @@
         <v>651</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>41</v>
@@ -60508,7 +60508,7 @@
         <v>124</v>
       </c>
       <c r="AD202" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE202" s="2">
         <v>0</v>
@@ -60698,7 +60698,7 @@
         <v>655</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>41</v>
@@ -60779,7 +60779,7 @@
         <v>124</v>
       </c>
       <c r="AD203" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE203" s="2">
         <v>0</v>
@@ -60969,7 +60969,7 @@
         <v>658</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>48</v>
@@ -61050,7 +61050,7 @@
         <v>124</v>
       </c>
       <c r="AD204" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE204" s="2">
         <v>0</v>
@@ -61214,7 +61214,7 @@
         <v>90</v>
       </c>
       <c r="CH204" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="CI204" s="2" t="s">
         <v>90</v>
@@ -61240,7 +61240,7 @@
         <v>661</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D205" s="2">
         <v>1</v>
@@ -61321,7 +61321,7 @@
         <v>124</v>
       </c>
       <c r="AD205" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE205" s="2">
         <v>0</v>
@@ -61511,7 +61511,7 @@
         <v>664</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>48</v>
@@ -61592,7 +61592,7 @@
         <v>124</v>
       </c>
       <c r="AD206" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE206" s="2">
         <v>0</v>
@@ -61782,7 +61782,7 @@
         <v>666</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>48</v>
@@ -61863,7 +61863,7 @@
         <v>124</v>
       </c>
       <c r="AD207" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE207" s="2">
         <v>0</v>
@@ -61887,13 +61887,13 @@
         <v>90</v>
       </c>
       <c r="AL207" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AM207" s="2">
         <v>0</v>
       </c>
       <c r="AN207" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AO207" s="2">
         <v>0</v>
@@ -62053,7 +62053,7 @@
         <v>669</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>41</v>
@@ -62134,7 +62134,7 @@
         <v>124</v>
       </c>
       <c r="AD208" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE208" s="2">
         <v>0</v>
@@ -62158,7 +62158,7 @@
         <v>90</v>
       </c>
       <c r="AL208" s="2" t="s">
-        <v>670</v>
+        <v>826</v>
       </c>
       <c r="AM208" s="2" t="s">
         <v>652</v>
@@ -62173,7 +62173,7 @@
         <v>523</v>
       </c>
       <c r="AQ208" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AR208" s="2">
         <v>0</v>
@@ -62188,7 +62188,7 @@
         <v>0</v>
       </c>
       <c r="AV208" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AW208" s="2" t="s">
         <v>42</v>
@@ -62321,10 +62321,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>48</v>
@@ -62405,7 +62405,7 @@
         <v>124</v>
       </c>
       <c r="AD209" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE209" s="2">
         <v>0</v>
@@ -62417,7 +62417,7 @@
         <v>90</v>
       </c>
       <c r="AH209" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI209" s="2" t="s">
         <v>42</v>
@@ -62465,7 +62465,7 @@
         <v>42</v>
       </c>
       <c r="AX209" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AY209" s="2">
         <v>0</v>
@@ -62592,10 +62592,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>48</v>
@@ -62676,7 +62676,7 @@
         <v>124</v>
       </c>
       <c r="AD210" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE210" s="2">
         <v>0</v>
@@ -62694,13 +62694,13 @@
         <v>42</v>
       </c>
       <c r="AJ210" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AK210" s="2" t="s">
         <v>90</v>
       </c>
       <c r="AL210" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AM210" s="2">
         <v>0</v>
@@ -62863,10 +62863,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>48</v>
@@ -62947,7 +62947,7 @@
         <v>124</v>
       </c>
       <c r="AD211" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE211" s="2">
         <v>0</v>
@@ -62977,7 +62977,7 @@
         <v>0</v>
       </c>
       <c r="AN211" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AO211" s="2">
         <v>0</v>
@@ -63134,10 +63134,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>48</v>
@@ -63218,7 +63218,7 @@
         <v>124</v>
       </c>
       <c r="AD212" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE212" s="2">
         <v>0</v>
@@ -63236,7 +63236,7 @@
         <v>73</v>
       </c>
       <c r="AJ212" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AK212" s="2" t="s">
         <v>90</v>
@@ -63405,10 +63405,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D213" s="2">
         <v>1</v>
@@ -63489,7 +63489,7 @@
         <v>124</v>
       </c>
       <c r="AD213" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE213" s="2">
         <v>0</v>
@@ -63676,10 +63676,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>48</v>
@@ -63760,7 +63760,7 @@
         <v>124</v>
       </c>
       <c r="AD214" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE214" s="2">
         <v>0</v>
@@ -63790,7 +63790,7 @@
         <v>0</v>
       </c>
       <c r="AN214" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AO214" s="2">
         <v>0</v>
@@ -63947,10 +63947,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>41</v>
@@ -64031,13 +64031,13 @@
         <v>124</v>
       </c>
       <c r="AD215" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE215" s="2">
         <v>0</v>
       </c>
       <c r="AF215" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AG215" s="2" t="s">
         <v>90</v>
@@ -64218,10 +64218,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>48</v>
@@ -64302,7 +64302,7 @@
         <v>124</v>
       </c>
       <c r="AD216" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE216" s="2">
         <v>0</v>
@@ -64314,7 +64314,7 @@
         <v>90</v>
       </c>
       <c r="AH216" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AI216" s="2" t="s">
         <v>42</v>
@@ -64362,10 +64362,10 @@
         <v>42</v>
       </c>
       <c r="AX216" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="AY216" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="AY216" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="AZ216" s="2">
         <v>0</v>
@@ -64489,10 +64489,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>48</v>
@@ -64573,7 +64573,7 @@
         <v>48</v>
       </c>
       <c r="AD217" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE217" s="2">
         <v>0</v>
@@ -64609,7 +64609,7 @@
         <v>0</v>
       </c>
       <c r="AP217" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AQ217" s="2" t="s">
         <v>42</v>
@@ -64760,10 +64760,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>48</v>
@@ -64844,7 +64844,7 @@
         <v>48</v>
       </c>
       <c r="AD218" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE218" s="2">
         <v>0</v>
@@ -64880,7 +64880,7 @@
         <v>0</v>
       </c>
       <c r="AP218" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AQ218" s="2" t="s">
         <v>42</v>
@@ -64955,10 +64955,10 @@
         <v>48</v>
       </c>
       <c r="BO218" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="BP218" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="BP218" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="BQ218" s="2" t="s">
         <v>90</v>
@@ -65031,10 +65031,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>48</v>
@@ -65115,7 +65115,7 @@
         <v>124</v>
       </c>
       <c r="AD219" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE219" s="2">
         <v>0</v>
@@ -65127,19 +65127,19 @@
         <v>90</v>
       </c>
       <c r="AH219" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI219" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AJ219" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK219" s="2" t="s">
         <v>90</v>
       </c>
       <c r="AL219" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM219" s="2">
         <v>0</v>
@@ -65175,7 +65175,7 @@
         <v>42</v>
       </c>
       <c r="AX219" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AY219" s="2">
         <v>0</v>
@@ -65302,10 +65302,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>48</v>
@@ -65386,7 +65386,7 @@
         <v>124</v>
       </c>
       <c r="AD220" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE220" s="2">
         <v>0</v>
@@ -65398,13 +65398,13 @@
         <v>90</v>
       </c>
       <c r="AH220" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AI220" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AJ220" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AK220" s="2" t="s">
         <v>90</v>
@@ -65550,7 +65550,7 @@
         <v>90</v>
       </c>
       <c r="CH220" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="CI220" s="2" t="s">
         <v>605</v>
@@ -65573,10 +65573,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>41</v>
@@ -65657,7 +65657,7 @@
         <v>124</v>
       </c>
       <c r="AD221" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE221" s="2">
         <v>0</v>
@@ -65681,94 +65681,94 @@
         <v>90</v>
       </c>
       <c r="AL221" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="AM221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN221" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP221" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="AQ221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT221" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW221" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA221" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB221" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC221" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ221" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK221" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL221" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM221" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BN221" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BO221" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="AM221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN221" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP221" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="AQ221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT221" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW221" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA221" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB221" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC221" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ221" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BK221" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BL221" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM221" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="BN221" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BO221" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="BP221" s="2" t="s">
         <v>48</v>
@@ -65844,10 +65844,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>41</v>
@@ -65868,7 +65868,7 @@
         <v>90</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K222" s="2" t="s">
         <v>48</v>
@@ -65928,7 +65928,7 @@
         <v>124</v>
       </c>
       <c r="AD222" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE222" s="2">
         <v>0</v>
@@ -65964,7 +65964,7 @@
         <v>0</v>
       </c>
       <c r="AP222" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AQ222" s="2">
         <v>0</v>
@@ -66115,10 +66115,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>48</v>
@@ -66199,7 +66199,7 @@
         <v>124</v>
       </c>
       <c r="AD223" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE223" s="2">
         <v>0</v>
@@ -66211,7 +66211,7 @@
         <v>90</v>
       </c>
       <c r="AH223" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AI223" s="2" t="s">
         <v>42</v>
@@ -66229,7 +66229,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AO223" s="2">
         <v>0</v>
@@ -66259,7 +66259,7 @@
         <v>42</v>
       </c>
       <c r="AX223" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AY223" s="2">
         <v>0</v>
@@ -66316,7 +66316,7 @@
         <v>94</v>
       </c>
       <c r="BQ223" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="BR223" s="2" t="s">
         <v>90</v>
@@ -66386,13 +66386,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>711</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="E224" s="2">
         <v>2</v>
@@ -66470,7 +66470,7 @@
         <v>124</v>
       </c>
       <c r="AD224" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE224" s="2">
         <v>0</v>
@@ -66500,7 +66500,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AO224" s="2">
         <v>0</v>
@@ -66657,10 +66657,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>48</v>
@@ -66741,7 +66741,7 @@
         <v>124</v>
       </c>
       <c r="AD225" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE225" s="2">
         <v>0</v>
@@ -66771,7 +66771,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AO225" s="2">
         <v>0</v>
@@ -66928,10 +66928,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>48</v>
@@ -67012,7 +67012,7 @@
         <v>124</v>
       </c>
       <c r="AD226" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE226" s="2">
         <v>0</v>
@@ -67030,7 +67030,7 @@
         <v>42</v>
       </c>
       <c r="AJ226" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AK226" s="2" t="s">
         <v>90</v>
@@ -67042,7 +67042,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AO226" s="2">
         <v>0</v>
@@ -67199,10 +67199,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>44</v>
@@ -67283,7 +67283,7 @@
         <v>124</v>
       </c>
       <c r="AD227" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE227" s="2">
         <v>0</v>
@@ -67295,7 +67295,7 @@
         <v>90</v>
       </c>
       <c r="AH227" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AI227" s="2" t="s">
         <v>90</v>
@@ -67313,7 +67313,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AO227" s="2">
         <v>0</v>
@@ -67470,10 +67470,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>44</v>
@@ -67554,7 +67554,7 @@
         <v>124</v>
       </c>
       <c r="AD228" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE228" s="2">
         <v>0</v>
@@ -67584,7 +67584,7 @@
         <v>0</v>
       </c>
       <c r="AN228" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AO228" s="2">
         <v>0</v>
@@ -67741,10 +67741,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>44</v>
@@ -67825,7 +67825,7 @@
         <v>124</v>
       </c>
       <c r="AD229" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE229" s="2">
         <v>0</v>
@@ -67879,7 +67879,7 @@
         <v>0</v>
       </c>
       <c r="AV229" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AW229" s="2" t="s">
         <v>90</v>
@@ -68012,10 +68012,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>44</v>
@@ -68096,7 +68096,7 @@
         <v>124</v>
       </c>
       <c r="AD230" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE230" s="2">
         <v>0</v>
@@ -68159,7 +68159,7 @@
         <v>0</v>
       </c>
       <c r="AY230" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AZ230" s="2">
         <v>0</v>
@@ -68283,10 +68283,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>44</v>
@@ -68367,7 +68367,7 @@
         <v>124</v>
       </c>
       <c r="AD231" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE231" s="2">
         <v>0</v>
@@ -68391,7 +68391,7 @@
         <v>90</v>
       </c>
       <c r="AL231" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AM231" s="2">
         <v>0</v>
@@ -68554,10 +68554,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>44</v>
@@ -68638,7 +68638,7 @@
         <v>124</v>
       </c>
       <c r="AD232" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE232" s="2">
         <v>0</v>
@@ -68650,13 +68650,13 @@
         <v>90</v>
       </c>
       <c r="AH232" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="AI232" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="AJ232" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="AI232" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="AJ232" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="AK232" s="2" t="s">
         <v>90</v>
@@ -68825,10 +68825,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>44</v>
@@ -68909,7 +68909,7 @@
         <v>124</v>
       </c>
       <c r="AD233" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE233" s="2">
         <v>0</v>
@@ -68924,7 +68924,7 @@
         <v>90</v>
       </c>
       <c r="AI233" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AJ233" s="2" t="s">
         <v>90</v>
@@ -69096,10 +69096,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>44</v>
@@ -69180,7 +69180,7 @@
         <v>124</v>
       </c>
       <c r="AD234" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE234" s="2">
         <v>0</v>
@@ -69347,7 +69347,7 @@
         <v>90</v>
       </c>
       <c r="CI234" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="CJ234" s="2" t="s">
         <v>90</v>
@@ -69367,10 +69367,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>44</v>
@@ -69451,7 +69451,7 @@
         <v>124</v>
       </c>
       <c r="AD235" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE235" s="2">
         <v>0</v>
@@ -69615,10 +69615,10 @@
         <v>90</v>
       </c>
       <c r="CH235" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="CI235" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="CJ235" s="2" t="s">
         <v>90</v>
@@ -69638,10 +69638,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>44</v>
@@ -69722,7 +69722,7 @@
         <v>124</v>
       </c>
       <c r="AD236" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE236" s="2">
         <v>0</v>
@@ -69886,7 +69886,7 @@
         <v>90</v>
       </c>
       <c r="CH236" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="CI236" s="2" t="s">
         <v>90</v>
@@ -69909,7 +69909,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C237" s="2">
         <v>4</v>
@@ -69960,7 +69960,7 @@
         <v>44</v>
       </c>
       <c r="S237" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="T237" s="2" t="s">
         <v>44</v>
@@ -69993,7 +69993,7 @@
         <v>124</v>
       </c>
       <c r="AD237" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE237" s="2">
         <v>0</v>
@@ -70101,13 +70101,13 @@
         <v>44</v>
       </c>
       <c r="BN237" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="BO237" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="BP237" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="BQ237" s="2" t="s">
         <v>90</v>
@@ -70180,10 +70180,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D238" s="2">
         <v>1</v>
@@ -70198,7 +70198,7 @@
         <v>124</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I238" s="2" t="s">
         <v>90</v>
@@ -70264,7 +70264,7 @@
         <v>124</v>
       </c>
       <c r="AD238" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE238" s="2">
         <v>0</v>
@@ -70321,7 +70321,7 @@
         <v>42</v>
       </c>
       <c r="AW238" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AX238" s="2">
         <v>0</v>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -2328,7 +2328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13714" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13765" uniqueCount="828">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5547,6 +5547,10 @@
   </si>
   <si>
     <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS风暴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5920,11 +5924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM238"/>
+  <dimension ref="A1:CM239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL210" sqref="AL210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E242" sqref="E242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5934,6 +5938,7 @@
     <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="9" width="11.75" customWidth="1"/>
     <col min="38" max="38" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.625" customWidth="1"/>
     <col min="79" max="79" width="12" customWidth="1"/>
     <col min="80" max="80" width="12.75" customWidth="1"/>
     <col min="81" max="81" width="17.875" customWidth="1"/>
@@ -70446,6 +70451,277 @@
         <v>0</v>
       </c>
     </row>
+    <row r="239" spans="1:91" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>827</v>
+      </c>
+      <c r="C239" s="2">
+        <v>4</v>
+      </c>
+      <c r="D239" s="2">
+        <v>1</v>
+      </c>
+      <c r="E239" s="2">
+        <v>2</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J239" s="2">
+        <v>3</v>
+      </c>
+      <c r="K239" s="2">
+        <v>2</v>
+      </c>
+      <c r="L239" s="2">
+        <v>2</v>
+      </c>
+      <c r="M239" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N239" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P239" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y239" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z239" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA239" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC239" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD239" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="AE239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF239" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL239" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO239">
+        <v>0</v>
+      </c>
+      <c r="AP239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW239" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY239" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ239" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA239" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB239" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD239" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE239" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF239" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG239" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH239" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI239" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ239" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK239" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BN239" s="2">
+        <v>2</v>
+      </c>
+      <c r="BO239" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP239" s="2">
+        <v>2</v>
+      </c>
+      <c r="BQ239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BR239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BS239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU239" s="2"/>
+      <c r="BV239" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW239" s="2">
+        <v>4</v>
+      </c>
+      <c r="BX239" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY239" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CA239" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CC239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CD239" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="CE239" s="2"/>
+      <c r="CF239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CG239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CI239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CL239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CM239" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66173F1-EA87-49ED-B0FD-C84B82318275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -435,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -461,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -476,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -502,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -554,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -580,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -606,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -632,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -658,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -684,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -710,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -736,7 +737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -762,7 +763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -788,7 +789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -814,7 +815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -840,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -866,7 +867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -892,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -918,7 +919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -944,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -970,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -996,7 +997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
         <r>
           <rPr>
@@ -1048,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
         <r>
           <rPr>
@@ -1074,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -1126,7 +1127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -1152,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0">
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -1204,7 +1205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -1230,7 +1231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -1256,7 +1257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
       <text>
         <r>
           <rPr>
@@ -1282,7 +1283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
       <text>
         <r>
           <rPr>
@@ -1308,7 +1309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
         <r>
           <rPr>
@@ -1334,7 +1335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0">
+    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0">
+    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
         <r>
           <rPr>
@@ -1386,7 +1387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0">
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
       <text>
         <r>
           <rPr>
@@ -1412,7 +1413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0">
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
         <r>
           <rPr>
@@ -1438,7 +1439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0">
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
       <text>
         <r>
           <rPr>
@@ -1464,7 +1465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0">
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
       <text>
         <r>
           <rPr>
@@ -1490,7 +1491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0">
+    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -1516,7 +1517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0">
+    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -1542,7 +1543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0">
+    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -1568,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0">
+    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -1594,7 +1595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0">
+    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1620,7 +1621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0">
+    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -1646,7 +1647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0" shapeId="0">
+    <comment ref="BN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
       <text>
         <r>
           <rPr>
@@ -1672,7 +1673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0" shapeId="0">
+    <comment ref="BO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
       <text>
         <r>
           <rPr>
@@ -1698,7 +1699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0" shapeId="0">
+    <comment ref="BP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
       <text>
         <r>
           <rPr>
@@ -1724,7 +1725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
+    <comment ref="BQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
       <text>
         <r>
           <rPr>
@@ -1750,7 +1751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0">
+    <comment ref="BR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
       <text>
         <r>
           <rPr>
@@ -1776,7 +1777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0" shapeId="0">
+    <comment ref="BS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
       <text>
         <r>
           <rPr>
@@ -1802,7 +1803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT1" authorId="0" shapeId="0">
+    <comment ref="BT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
       <text>
         <r>
           <rPr>
@@ -1828,7 +1829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0">
+    <comment ref="BU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
       <text>
         <r>
           <rPr>
@@ -1854,7 +1855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BV1" authorId="0" shapeId="0">
+    <comment ref="BV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
       <text>
         <r>
           <rPr>
@@ -1880,7 +1881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW1" authorId="0" shapeId="0">
+    <comment ref="BW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
       <text>
         <r>
           <rPr>
@@ -1906,7 +1907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0">
+    <comment ref="BX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
       <text>
         <r>
           <rPr>
@@ -1932,7 +1933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY1" authorId="0" shapeId="0">
+    <comment ref="BY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
       <text>
         <r>
           <rPr>
@@ -1958,7 +1959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
+    <comment ref="BZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
       <text>
         <r>
           <rPr>
@@ -1985,7 +1986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
       <text>
         <r>
           <rPr>
@@ -2011,7 +2012,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB1" authorId="0" shapeId="0">
+    <comment ref="CB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
       <text>
         <r>
           <rPr>
@@ -2037,7 +2038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC1" authorId="0" shapeId="0">
+    <comment ref="CC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
       <text>
         <r>
           <rPr>
@@ -2063,7 +2064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD1" authorId="0" shapeId="0">
+    <comment ref="CD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
       <text>
         <r>
           <rPr>
@@ -2089,7 +2090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0" shapeId="0">
+    <comment ref="CE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000051000000}">
       <text>
         <r>
           <rPr>
@@ -2115,7 +2116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CF1" authorId="0" shapeId="0">
+    <comment ref="CF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
       <text>
         <r>
           <rPr>
@@ -2141,7 +2142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG1" authorId="0" shapeId="0">
+    <comment ref="CG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000053000000}">
       <text>
         <r>
           <rPr>
@@ -2167,7 +2168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH1" authorId="0" shapeId="0">
+    <comment ref="CH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
       <text>
         <r>
           <rPr>
@@ -2193,7 +2194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI1" authorId="0" shapeId="0">
+    <comment ref="CI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000055000000}">
       <text>
         <r>
           <rPr>
@@ -2219,7 +2220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CJ1" authorId="0" shapeId="0">
+    <comment ref="CJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000056000000}">
       <text>
         <r>
           <rPr>
@@ -2245,7 +2246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK1" authorId="0" shapeId="0">
+    <comment ref="CK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000057000000}">
       <text>
         <r>
           <rPr>
@@ -2271,7 +2272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CL1" authorId="0" shapeId="0">
+    <comment ref="CL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000058000000}">
       <text>
         <r>
           <rPr>
@@ -2297,7 +2298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CM1" authorId="0" shapeId="0">
+    <comment ref="CM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000059000000}">
       <text>
         <r>
           <rPr>
@@ -5557,8 +5558,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5638,7 +5639,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5713,6 +5714,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5748,6 +5766,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5923,21 +5958,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CM239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E242" sqref="E242"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:BF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="9" width="11.75" customWidth="1"/>
     <col min="38" max="38" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20" customWidth="1"/>
     <col min="78" max="78" width="10.625" customWidth="1"/>
     <col min="79" max="79" width="12" customWidth="1"/>
     <col min="80" max="80" width="12.75" customWidth="1"/>
@@ -5945,7 +5981,7 @@
     <col min="82" max="89" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:91" ht="85.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6220,7 +6256,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:91">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6491,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:91">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6762,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:91">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7033,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:91">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7304,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:91">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7575,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:91">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7846,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:91">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8117,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:91">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8388,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:91">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8659,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:91">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8930,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:91">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9201,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:91">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9472,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:91">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9743,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:91">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10014,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:91">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10285,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:91">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10556,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:91">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10827,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:91">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11098,7 +11134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:91">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11369,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:91">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11640,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:91">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11911,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:91">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12182,7 +12218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:91">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12453,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:91">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12724,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:91">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12995,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:91">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13266,7 +13302,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:91">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13537,7 +13573,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:91">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13808,7 +13844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:91">
       <c r="A30">
         <v>29</v>
       </c>
@@ -14079,7 +14115,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:91">
       <c r="A31">
         <v>30</v>
       </c>
@@ -14350,7 +14386,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:91">
       <c r="A32">
         <v>31</v>
       </c>
@@ -14621,7 +14657,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:91">
       <c r="A33">
         <v>32</v>
       </c>
@@ -14892,7 +14928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:91">
       <c r="A34">
         <v>33</v>
       </c>
@@ -15163,7 +15199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:91">
       <c r="A35">
         <v>34</v>
       </c>
@@ -15434,7 +15470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:91">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15705,7 +15741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:91">
       <c r="A37">
         <v>36</v>
       </c>
@@ -15976,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:91">
       <c r="A38">
         <v>37</v>
       </c>
@@ -16247,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:91">
       <c r="A39">
         <v>38</v>
       </c>
@@ -16518,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:91">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16789,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:91">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17060,7 +17096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:91">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17333,7 +17369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:91">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17604,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:91">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17875,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:91">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18146,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:91">
       <c r="A46">
         <v>45</v>
       </c>
@@ -18417,7 +18453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:91">
       <c r="A47">
         <v>46</v>
       </c>
@@ -18688,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:91">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18959,7 +18995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:91">
       <c r="A49">
         <v>48</v>
       </c>
@@ -19230,7 +19266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:91">
       <c r="A50">
         <v>49</v>
       </c>
@@ -19501,7 +19537,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:91">
       <c r="A51">
         <v>50</v>
       </c>
@@ -19772,7 +19808,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:91">
       <c r="A52">
         <v>51</v>
       </c>
@@ -20043,7 +20079,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:91">
       <c r="A53">
         <v>52</v>
       </c>
@@ -20314,7 +20350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:91">
       <c r="A54">
         <v>53</v>
       </c>
@@ -20585,7 +20621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:91">
       <c r="A55">
         <v>54</v>
       </c>
@@ -20856,7 +20892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:91">
       <c r="A56">
         <v>55</v>
       </c>
@@ -21127,7 +21163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:91">
       <c r="A57">
         <v>56</v>
       </c>
@@ -21398,7 +21434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:91">
       <c r="A58">
         <v>57</v>
       </c>
@@ -21669,7 +21705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:91">
       <c r="A59">
         <v>58</v>
       </c>
@@ -21942,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:91">
       <c r="A60">
         <v>59</v>
       </c>
@@ -22213,7 +22249,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:91">
       <c r="A61">
         <v>60</v>
       </c>
@@ -22484,7 +22520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:91">
       <c r="A62">
         <v>61</v>
       </c>
@@ -22755,7 +22791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:91">
       <c r="A63">
         <v>62</v>
       </c>
@@ -23026,7 +23062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:91">
       <c r="A64">
         <v>63</v>
       </c>
@@ -23297,7 +23333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:91">
       <c r="A65">
         <v>64</v>
       </c>
@@ -23568,7 +23604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:91">
       <c r="A66">
         <v>65</v>
       </c>
@@ -23839,7 +23875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:91">
       <c r="A67">
         <v>66</v>
       </c>
@@ -24110,7 +24146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:91">
       <c r="A68">
         <v>67</v>
       </c>
@@ -24381,7 +24417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:91">
       <c r="A69">
         <v>68</v>
       </c>
@@ -24652,7 +24688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:91">
       <c r="A70">
         <v>69</v>
       </c>
@@ -24923,7 +24959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:91">
       <c r="A71">
         <v>70</v>
       </c>
@@ -25194,7 +25230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:91">
       <c r="A72">
         <v>71</v>
       </c>
@@ -25465,7 +25501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:91">
       <c r="A73">
         <v>72</v>
       </c>
@@ -25736,7 +25772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:91">
       <c r="A74">
         <v>73</v>
       </c>
@@ -26007,7 +26043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:91">
       <c r="A75">
         <v>74</v>
       </c>
@@ -26278,7 +26314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:91">
       <c r="A76">
         <v>75</v>
       </c>
@@ -26549,7 +26585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:91">
       <c r="A77">
         <v>76</v>
       </c>
@@ -26820,7 +26856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:91">
       <c r="A78">
         <v>77</v>
       </c>
@@ -27091,7 +27127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:91">
       <c r="A79">
         <v>78</v>
       </c>
@@ -27362,7 +27398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:91">
       <c r="A80">
         <v>79</v>
       </c>
@@ -27633,7 +27669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:91">
       <c r="A81">
         <v>80</v>
       </c>
@@ -27904,7 +27940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:91">
       <c r="A82">
         <v>81</v>
       </c>
@@ -28175,7 +28211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:91">
       <c r="A83">
         <v>82</v>
       </c>
@@ -28446,7 +28482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:91">
       <c r="A84">
         <v>83</v>
       </c>
@@ -28717,7 +28753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:91">
       <c r="A85">
         <v>84</v>
       </c>
@@ -28988,7 +29024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:91">
       <c r="A86">
         <v>85</v>
       </c>
@@ -29259,7 +29295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:91">
       <c r="A87">
         <v>86</v>
       </c>
@@ -29530,7 +29566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:91">
       <c r="A88">
         <v>87</v>
       </c>
@@ -29801,7 +29837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:91">
       <c r="A89">
         <v>88</v>
       </c>
@@ -30072,7 +30108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:91">
       <c r="A90">
         <v>89</v>
       </c>
@@ -30343,7 +30379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:91">
       <c r="A91">
         <v>90</v>
       </c>
@@ -30614,7 +30650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:91">
       <c r="A92">
         <v>91</v>
       </c>
@@ -30885,7 +30921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:91">
       <c r="A93">
         <v>92</v>
       </c>
@@ -31156,7 +31192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:91">
       <c r="A94">
         <v>93</v>
       </c>
@@ -31427,7 +31463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:91">
       <c r="A95">
         <v>94</v>
       </c>
@@ -31698,7 +31734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:91">
       <c r="A96">
         <v>95</v>
       </c>
@@ -31969,7 +32005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:91">
       <c r="A97">
         <v>96</v>
       </c>
@@ -32240,7 +32276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:91">
       <c r="A98">
         <v>97</v>
       </c>
@@ -32511,7 +32547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:91">
       <c r="A99">
         <v>98</v>
       </c>
@@ -32782,7 +32818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:91">
       <c r="A100">
         <v>99</v>
       </c>
@@ -33053,7 +33089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:91">
       <c r="A101">
         <v>100</v>
       </c>
@@ -33324,7 +33360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:91">
       <c r="A102">
         <v>101</v>
       </c>
@@ -33595,7 +33631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:91">
       <c r="A103">
         <v>102</v>
       </c>
@@ -33866,7 +33902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:91">
       <c r="A104">
         <v>103</v>
       </c>
@@ -34137,7 +34173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:91">
       <c r="A105">
         <v>104</v>
       </c>
@@ -34408,7 +34444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:91">
       <c r="A106">
         <v>105</v>
       </c>
@@ -34679,7 +34715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:91">
       <c r="A107">
         <v>106</v>
       </c>
@@ -34950,7 +34986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:91">
       <c r="A108">
         <v>107</v>
       </c>
@@ -35221,7 +35257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:91">
       <c r="A109">
         <v>108</v>
       </c>
@@ -35492,7 +35528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:91">
       <c r="A110">
         <v>109</v>
       </c>
@@ -35763,7 +35799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:91">
       <c r="A111">
         <v>110</v>
       </c>
@@ -36034,7 +36070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:91">
       <c r="A112">
         <v>111</v>
       </c>
@@ -36305,7 +36341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:91">
       <c r="A113">
         <v>112</v>
       </c>
@@ -36576,7 +36612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:91">
       <c r="A114">
         <v>113</v>
       </c>
@@ -36847,7 +36883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:91">
       <c r="A115">
         <v>114</v>
       </c>
@@ -37118,7 +37154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:91">
       <c r="A116">
         <v>115</v>
       </c>
@@ -37389,7 +37425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:91">
       <c r="A117">
         <v>116</v>
       </c>
@@ -37660,7 +37696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:91">
       <c r="A118">
         <v>117</v>
       </c>
@@ -37931,7 +37967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:91">
       <c r="A119">
         <v>118</v>
       </c>
@@ -38202,7 +38238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:91">
       <c r="A120">
         <v>119</v>
       </c>
@@ -38473,7 +38509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:91">
       <c r="A121">
         <v>120</v>
       </c>
@@ -38744,7 +38780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:91">
       <c r="A122">
         <v>121</v>
       </c>
@@ -39015,7 +39051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:91">
       <c r="A123">
         <v>122</v>
       </c>
@@ -39286,7 +39322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:91">
       <c r="A124">
         <v>123</v>
       </c>
@@ -39557,7 +39593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:91">
       <c r="A125">
         <v>124</v>
       </c>
@@ -39828,7 +39864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:91">
       <c r="A126">
         <v>125</v>
       </c>
@@ -40099,7 +40135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:91">
       <c r="A127">
         <v>126</v>
       </c>
@@ -40370,7 +40406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:91">
       <c r="A128">
         <v>127</v>
       </c>
@@ -40641,7 +40677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:91">
       <c r="A129">
         <v>128</v>
       </c>
@@ -40912,7 +40948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:91">
       <c r="A130">
         <v>129</v>
       </c>
@@ -41183,7 +41219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:91">
       <c r="A131">
         <v>130</v>
       </c>
@@ -41454,7 +41490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:91">
       <c r="A132">
         <v>131</v>
       </c>
@@ -41725,7 +41761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:91">
       <c r="A133">
         <v>132</v>
       </c>
@@ -41996,7 +42032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:91">
       <c r="A134">
         <v>133</v>
       </c>
@@ -42267,7 +42303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:91">
       <c r="A135">
         <v>134</v>
       </c>
@@ -42538,7 +42574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:91">
       <c r="A136">
         <v>135</v>
       </c>
@@ -42809,7 +42845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:91">
       <c r="A137">
         <v>136</v>
       </c>
@@ -43080,7 +43116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:91">
       <c r="A138">
         <v>137</v>
       </c>
@@ -43351,7 +43387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:91">
       <c r="A139">
         <v>138</v>
       </c>
@@ -43622,7 +43658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:91">
       <c r="A140">
         <v>139</v>
       </c>
@@ -43893,7 +43929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:91">
       <c r="A141">
         <v>140</v>
       </c>
@@ -44164,7 +44200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:91">
       <c r="A142">
         <v>141</v>
       </c>
@@ -44435,7 +44471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:91">
       <c r="A143">
         <v>142</v>
       </c>
@@ -44706,7 +44742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:91">
       <c r="A144">
         <v>143</v>
       </c>
@@ -44977,7 +45013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:91">
       <c r="A145">
         <v>144</v>
       </c>
@@ -45248,7 +45284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:91">
       <c r="A146">
         <v>145</v>
       </c>
@@ -45519,7 +45555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:91">
       <c r="A147">
         <v>146</v>
       </c>
@@ -45790,7 +45826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:91">
       <c r="A148">
         <v>147</v>
       </c>
@@ -46061,7 +46097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:91">
       <c r="A149">
         <v>148</v>
       </c>
@@ -46332,7 +46368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:91">
       <c r="A150">
         <v>149</v>
       </c>
@@ -46603,7 +46639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:91">
       <c r="A151">
         <v>150</v>
       </c>
@@ -46874,7 +46910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:91">
       <c r="A152">
         <v>151</v>
       </c>
@@ -47145,7 +47181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:91">
       <c r="A153">
         <v>152</v>
       </c>
@@ -47416,7 +47452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:91">
       <c r="A154">
         <v>153</v>
       </c>
@@ -47687,7 +47723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:91">
       <c r="A155">
         <v>154</v>
       </c>
@@ -47958,7 +47994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:91">
       <c r="A156">
         <v>155</v>
       </c>
@@ -48229,7 +48265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:91">
       <c r="A157">
         <v>156</v>
       </c>
@@ -48500,7 +48536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:91">
       <c r="A158">
         <v>157</v>
       </c>
@@ -48771,7 +48807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:91">
       <c r="A159">
         <v>158</v>
       </c>
@@ -49042,7 +49078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:91">
       <c r="A160">
         <v>159</v>
       </c>
@@ -49313,7 +49349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:91">
       <c r="A161">
         <v>160</v>
       </c>
@@ -49584,7 +49620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:91">
       <c r="A162">
         <v>161</v>
       </c>
@@ -49855,7 +49891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:91">
       <c r="A163">
         <v>162</v>
       </c>
@@ -50126,7 +50162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:91">
       <c r="A164">
         <v>163</v>
       </c>
@@ -50397,7 +50433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:91">
       <c r="A165">
         <v>164</v>
       </c>
@@ -50668,7 +50704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:91">
       <c r="A166">
         <v>165</v>
       </c>
@@ -50939,7 +50975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:91">
       <c r="A167">
         <v>166</v>
       </c>
@@ -51210,7 +51246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:91">
       <c r="A168">
         <v>167</v>
       </c>
@@ -51481,7 +51517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:91">
       <c r="A169">
         <v>168</v>
       </c>
@@ -51752,7 +51788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:91">
       <c r="A170">
         <v>169</v>
       </c>
@@ -52023,7 +52059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:91">
       <c r="A171">
         <v>170</v>
       </c>
@@ -52294,7 +52330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:91">
       <c r="A172">
         <v>171</v>
       </c>
@@ -52565,7 +52601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:91">
       <c r="A173">
         <v>172</v>
       </c>
@@ -52836,7 +52872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:91">
       <c r="A174">
         <v>173</v>
       </c>
@@ -53107,7 +53143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:91">
       <c r="A175">
         <v>174</v>
       </c>
@@ -53378,7 +53414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:91">
       <c r="A176">
         <v>175</v>
       </c>
@@ -53649,7 +53685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:91">
       <c r="A177">
         <v>176</v>
       </c>
@@ -53920,7 +53956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:91">
       <c r="A178">
         <v>177</v>
       </c>
@@ -54191,7 +54227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:91">
       <c r="A179">
         <v>178</v>
       </c>
@@ -54462,7 +54498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:91">
       <c r="A180">
         <v>179</v>
       </c>
@@ -54733,7 +54769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:91">
       <c r="A181">
         <v>180</v>
       </c>
@@ -55004,7 +55040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:91">
       <c r="A182">
         <v>181</v>
       </c>
@@ -55275,7 +55311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:91">
       <c r="A183">
         <v>182</v>
       </c>
@@ -55546,7 +55582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:91">
       <c r="A184">
         <v>183</v>
       </c>
@@ -55817,7 +55853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:91">
       <c r="A185">
         <v>184</v>
       </c>
@@ -56088,7 +56124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:91">
       <c r="A186">
         <v>185</v>
       </c>
@@ -56359,7 +56395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:91">
       <c r="A187">
         <v>186</v>
       </c>
@@ -56630,7 +56666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:91">
       <c r="A188">
         <v>187</v>
       </c>
@@ -56901,7 +56937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:91">
       <c r="A189">
         <v>188</v>
       </c>
@@ -57172,7 +57208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:91">
       <c r="A190">
         <v>189</v>
       </c>
@@ -57443,7 +57479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:91">
       <c r="A191">
         <v>190</v>
       </c>
@@ -57714,7 +57750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:91">
       <c r="A192">
         <v>191</v>
       </c>
@@ -57985,7 +58021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:91">
       <c r="A193">
         <v>192</v>
       </c>
@@ -58256,7 +58292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:91">
       <c r="A194">
         <v>193</v>
       </c>
@@ -58527,7 +58563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:91">
       <c r="A195">
         <v>194</v>
       </c>
@@ -58798,7 +58834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:91">
       <c r="A196">
         <v>195</v>
       </c>
@@ -59069,7 +59105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:91">
       <c r="A197">
         <v>196</v>
       </c>
@@ -59340,7 +59376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:91">
       <c r="A198">
         <v>197</v>
       </c>
@@ -59611,7 +59647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:91">
       <c r="A199">
         <v>198</v>
       </c>
@@ -59882,7 +59918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:91">
       <c r="A200">
         <v>199</v>
       </c>
@@ -60153,7 +60189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:91">
       <c r="A201">
         <v>200</v>
       </c>
@@ -60424,7 +60460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:91">
       <c r="A202">
         <v>201</v>
       </c>
@@ -60695,7 +60731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:91">
       <c r="A203">
         <v>202</v>
       </c>
@@ -60966,7 +61002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:91">
       <c r="A204">
         <v>203</v>
       </c>
@@ -61237,7 +61273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:91">
       <c r="A205">
         <v>204</v>
       </c>
@@ -61508,7 +61544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:91">
       <c r="A206">
         <v>205</v>
       </c>
@@ -61779,7 +61815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:91">
       <c r="A207">
         <v>206</v>
       </c>
@@ -62050,7 +62086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:91">
       <c r="A208">
         <v>207</v>
       </c>
@@ -62321,7 +62357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:91">
       <c r="A209">
         <v>208</v>
       </c>
@@ -62592,7 +62628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:91">
       <c r="A210">
         <v>209</v>
       </c>
@@ -62863,7 +62899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:91">
       <c r="A211">
         <v>210</v>
       </c>
@@ -63134,7 +63170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:91">
       <c r="A212">
         <v>211</v>
       </c>
@@ -63405,7 +63441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:91">
       <c r="A213">
         <v>212</v>
       </c>
@@ -63676,7 +63712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:91">
       <c r="A214">
         <v>213</v>
       </c>
@@ -63947,7 +63983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:91">
       <c r="A215">
         <v>214</v>
       </c>
@@ -64218,7 +64254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:91">
       <c r="A216">
         <v>215</v>
       </c>
@@ -64489,7 +64525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:91">
       <c r="A217">
         <v>216</v>
       </c>
@@ -64760,7 +64796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:91">
       <c r="A218">
         <v>217</v>
       </c>
@@ -65031,7 +65067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:91">
       <c r="A219">
         <v>218</v>
       </c>
@@ -65302,7 +65338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:91">
       <c r="A220">
         <v>219</v>
       </c>
@@ -65573,7 +65609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:91">
       <c r="A221">
         <v>220</v>
       </c>
@@ -65844,7 +65880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:91">
       <c r="A222">
         <v>221</v>
       </c>
@@ -66115,7 +66151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:91">
       <c r="A223">
         <v>222</v>
       </c>
@@ -66386,7 +66422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:91">
       <c r="A224">
         <v>223</v>
       </c>
@@ -66657,7 +66693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:91">
       <c r="A225">
         <v>224</v>
       </c>
@@ -66928,7 +66964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:91">
       <c r="A226">
         <v>225</v>
       </c>
@@ -67199,7 +67235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:91">
       <c r="A227">
         <v>226</v>
       </c>
@@ -67470,7 +67506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:91">
       <c r="A228">
         <v>227</v>
       </c>
@@ -67741,7 +67777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:91">
       <c r="A229">
         <v>228</v>
       </c>
@@ -68012,7 +68048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:91">
       <c r="A230">
         <v>229</v>
       </c>
@@ -68283,7 +68319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:91">
       <c r="A231">
         <v>230</v>
       </c>
@@ -68554,7 +68590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:91">
       <c r="A232">
         <v>231</v>
       </c>
@@ -68825,7 +68861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:91">
       <c r="A233">
         <v>232</v>
       </c>
@@ -69096,7 +69132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:91">
       <c r="A234">
         <v>233</v>
       </c>
@@ -69367,7 +69403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:91">
       <c r="A235">
         <v>234</v>
       </c>
@@ -69638,7 +69674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:91">
       <c r="A236">
         <v>235</v>
       </c>
@@ -69909,7 +69945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:91">
       <c r="A237">
         <v>236</v>
       </c>
@@ -70180,7 +70216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:91">
       <c r="A238">
         <v>237</v>
       </c>
@@ -70451,7 +70487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:91" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:91">
       <c r="A239">
         <v>238</v>
       </c>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC47C874-DC0B-45EB-A58C-DA3BD4CEF13A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -410,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -462,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -477,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -503,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -555,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -581,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -607,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -633,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -659,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -711,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -763,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -789,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -815,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="AH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -841,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="AI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -867,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -893,7 +892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="AK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -919,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -945,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -971,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -997,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+    <comment ref="AO1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1023,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+    <comment ref="AP1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+    <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+    <comment ref="AR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1101,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+    <comment ref="AS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1127,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+    <comment ref="AT1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1153,7 +1152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+    <comment ref="AU1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1179,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+    <comment ref="AV1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1205,7 +1204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+    <comment ref="AW1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1231,7 +1230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+    <comment ref="AX1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1257,7 +1256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+    <comment ref="AY1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1283,7 +1282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+    <comment ref="AZ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1309,7 +1308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
+    <comment ref="BA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1335,7 +1334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
+    <comment ref="BB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1361,7 +1360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
+    <comment ref="BC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1387,7 +1386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
+    <comment ref="BD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1413,7 +1412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+    <comment ref="BE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1439,7 +1438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
+    <comment ref="BF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1465,7 +1464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
+    <comment ref="BG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1491,7 +1490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
+    <comment ref="BH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1517,7 +1516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
+    <comment ref="BI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1543,7 +1542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
+    <comment ref="BJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1569,7 +1568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
+    <comment ref="BK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1595,7 +1594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
+    <comment ref="BL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1621,7 +1620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
+    <comment ref="BM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1647,7 +1646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
+    <comment ref="BN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1673,7 +1672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
+    <comment ref="BO1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1699,7 +1698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
+    <comment ref="BP1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1725,7 +1724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
+    <comment ref="BQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1751,7 +1750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
+    <comment ref="BR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1777,7 +1776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
+    <comment ref="BS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1803,7 +1802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
+    <comment ref="BT1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1829,7 +1828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
+    <comment ref="BU1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1855,7 +1854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
+    <comment ref="BV1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1881,7 +1880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
+    <comment ref="BW1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1907,7 +1906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
+    <comment ref="BX1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1933,7 +1932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
+    <comment ref="BY1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1959,7 +1958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
+    <comment ref="BZ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1986,7 +1985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
+    <comment ref="CA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2012,7 +2011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
+    <comment ref="CB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2038,7 +2037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
+    <comment ref="CC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2064,7 +2063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
+    <comment ref="CD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2090,7 +2089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000051000000}">
+    <comment ref="CE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2116,7 +2115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
+    <comment ref="CF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2142,7 +2141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000053000000}">
+    <comment ref="CG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2168,7 +2167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
+    <comment ref="CH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2194,7 +2193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000055000000}">
+    <comment ref="CI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2220,7 +2219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000056000000}">
+    <comment ref="CJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2246,7 +2245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000057000000}">
+    <comment ref="CK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2272,7 +2271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000058000000}">
+    <comment ref="CL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2298,7 +2297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000059000000}">
+    <comment ref="CM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2329,7 +2328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13768" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27536" uniqueCount="825">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5546,8 +5545,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5627,7 +5626,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5702,23 +5701,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5754,23 +5736,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5946,15 +5911,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP45" sqref="C45:AP45"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF168" sqref="AF168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
@@ -5969,7 +5934,7 @@
     <col min="82" max="89" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="85.5" customHeight="1">
+    <row r="1" spans="1:91" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6244,7 +6209,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6515,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6786,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7057,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7328,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:91">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7599,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:91">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7870,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:91">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8141,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:91">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8412,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8683,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8954,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:91">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9225,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:91">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9496,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:91">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9767,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:91">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10038,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:91">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10309,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:91">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10580,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:91">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10851,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:91">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11122,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:91">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11393,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:91">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11664,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:91">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11935,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:91">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12206,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:91">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12477,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:91">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12748,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:91">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13019,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:91">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13290,7 +13255,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:91">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13561,7 +13526,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:91">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13832,7 +13797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:91">
+    <row r="30" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -14103,7 +14068,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:91">
+    <row r="31" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -14374,7 +14339,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:91">
+    <row r="32" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -14645,7 +14610,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:91">
+    <row r="33" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -14916,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:91">
+    <row r="34" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -15187,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:91">
+    <row r="35" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -15458,7 +15423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:91">
+    <row r="36" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15729,7 +15694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:91">
+    <row r="37" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -16000,7 +15965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:91">
+    <row r="38" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -16271,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:91">
+    <row r="39" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -16542,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:91">
+    <row r="40" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16813,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:91">
+    <row r="41" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17084,7 +17049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:91">
+    <row r="42" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17357,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:91">
+    <row r="43" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17628,7 +17593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:91">
+    <row r="44" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17899,7 +17864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:91">
+    <row r="45" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18170,7 +18135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:91">
+    <row r="46" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -18441,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:91">
+    <row r="47" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -18712,7 +18677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:91">
+    <row r="48" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18983,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:91">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -19254,7 +19219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:91">
+    <row r="50" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -19525,7 +19490,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:91">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -19796,7 +19761,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:91">
+    <row r="52" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -20067,7 +20032,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:91">
+    <row r="53" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -20338,7 +20303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:91">
+    <row r="54" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -20609,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:91">
+    <row r="55" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -20880,7 +20845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:91">
+    <row r="56" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -21151,7 +21116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:91">
+    <row r="57" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -21422,7 +21387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:91">
+    <row r="58" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -21693,7 +21658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:91">
+    <row r="59" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -21966,7 +21931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:91">
+    <row r="60" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -22237,7 +22202,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:91">
+    <row r="61" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -22508,7 +22473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:91">
+    <row r="62" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -22779,7 +22744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:91">
+    <row r="63" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -23050,7 +23015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:91">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -23321,7 +23286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:91">
+    <row r="65" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -23592,7 +23557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:91">
+    <row r="66" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -23863,7 +23828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:91">
+    <row r="67" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -24134,7 +24099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:91">
+    <row r="68" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -24405,7 +24370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:91">
+    <row r="69" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -24676,7 +24641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:91">
+    <row r="70" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -24947,7 +24912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:91">
+    <row r="71" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -25218,7 +25183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:91">
+    <row r="72" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -25489,7 +25454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:91">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -25760,7 +25725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:91">
+    <row r="74" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -26031,7 +25996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:91">
+    <row r="75" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -26302,7 +26267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:91">
+    <row r="76" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -26573,7 +26538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:91">
+    <row r="77" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -26844,7 +26809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:91">
+    <row r="78" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -27115,7 +27080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:91">
+    <row r="79" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -27386,7 +27351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:91">
+    <row r="80" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -27657,7 +27622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:91">
+    <row r="81" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -27928,7 +27893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:91">
+    <row r="82" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -28199,7 +28164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:91">
+    <row r="83" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -28470,7 +28435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:91">
+    <row r="84" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -28741,7 +28706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:91">
+    <row r="85" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -29012,7 +28977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:91">
+    <row r="86" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -29283,7 +29248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:91">
+    <row r="87" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -29554,7 +29519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:91">
+    <row r="88" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -29825,7 +29790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:91">
+    <row r="89" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -30096,7 +30061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:91">
+    <row r="90" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -30367,7 +30332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:91">
+    <row r="91" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -30638,7 +30603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:91">
+    <row r="92" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -30909,7 +30874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:91">
+    <row r="93" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -31180,7 +31145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:91">
+    <row r="94" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -31451,7 +31416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:91">
+    <row r="95" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -31722,7 +31687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:91">
+    <row r="96" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -31993,7 +31958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:91">
+    <row r="97" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -32264,7 +32229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:91">
+    <row r="98" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -32535,7 +32500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:91">
+    <row r="99" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -32806,7 +32771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:91">
+    <row r="100" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -33077,7 +33042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:91">
+    <row r="101" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -33348,7 +33313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:91">
+    <row r="102" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -33619,7 +33584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:91">
+    <row r="103" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -33890,7 +33855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:91">
+    <row r="104" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -34161,7 +34126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:91">
+    <row r="105" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -34432,7 +34397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:91">
+    <row r="106" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -34703,7 +34668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:91">
+    <row r="107" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -34974,7 +34939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:91">
+    <row r="108" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -35245,7 +35210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:91">
+    <row r="109" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -35516,7 +35481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:91">
+    <row r="110" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -35787,7 +35752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:91">
+    <row r="111" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -36058,7 +36023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:91">
+    <row r="112" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -36329,7 +36294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:91">
+    <row r="113" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -36600,7 +36565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:91">
+    <row r="114" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -36871,7 +36836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:91">
+    <row r="115" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -37142,7 +37107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:91">
+    <row r="116" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -37413,7 +37378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:91">
+    <row r="117" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -37684,7 +37649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:91">
+    <row r="118" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -37955,7 +37920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:91">
+    <row r="119" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -38226,7 +38191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:91">
+    <row r="120" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -38497,7 +38462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:91">
+    <row r="121" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -38768,7 +38733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:91">
+    <row r="122" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -39039,7 +39004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:91">
+    <row r="123" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -39310,7 +39275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:91">
+    <row r="124" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -39581,7 +39546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:91">
+    <row r="125" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -39852,7 +39817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:91">
+    <row r="126" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
@@ -40123,7 +40088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:91">
+    <row r="127" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -40394,7 +40359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:91">
+    <row r="128" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -40665,7 +40630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:91">
+    <row r="129" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -40936,7 +40901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:91">
+    <row r="130" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -41207,7 +41172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:91">
+    <row r="131" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
@@ -41478,7 +41443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:91">
+    <row r="132" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -41749,7 +41714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:91">
+    <row r="133" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -42020,7 +41985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:91">
+    <row r="134" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -42291,7 +42256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:91">
+    <row r="135" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -42562,7 +42527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:91">
+    <row r="136" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -42833,7 +42798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:91">
+    <row r="137" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -43104,7 +43069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:91">
+    <row r="138" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>137</v>
       </c>
@@ -43375,7 +43340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:91">
+    <row r="139" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -43646,7 +43611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:91">
+    <row r="140" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -43917,7 +43882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:91">
+    <row r="141" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -44188,7 +44153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:91">
+    <row r="142" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -44459,7 +44424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:91">
+    <row r="143" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -44730,7 +44695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:91">
+    <row r="144" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
@@ -45001,7 +44966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:91">
+    <row r="145" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -45272,7 +45237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:91">
+    <row r="146" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -45543,7 +45508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:91">
+    <row r="147" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -45814,7 +45779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:91">
+    <row r="148" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -46085,7 +46050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:91">
+    <row r="149" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -46356,7 +46321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:91">
+    <row r="150" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -46627,7 +46592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:91">
+    <row r="151" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -46898,7 +46863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:91">
+    <row r="152" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -47169,7 +47134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:91">
+    <row r="153" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -47440,7 +47405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:91">
+    <row r="154" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -47711,7 +47676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:91">
+    <row r="155" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>154</v>
       </c>
@@ -47982,7 +47947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:91">
+    <row r="156" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -48253,7 +48218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:91">
+    <row r="157" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -48524,7 +48489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:91">
+    <row r="158" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -48795,7 +48760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:91">
+    <row r="159" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
@@ -49066,7 +49031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:91">
+    <row r="160" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
@@ -49337,7 +49302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:91">
+    <row r="161" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
@@ -49608,7 +49573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:91">
+    <row r="162" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
@@ -49879,7 +49844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:91">
+    <row r="163" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>162</v>
       </c>
@@ -50150,7 +50115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:91">
+    <row r="164" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>163</v>
       </c>
@@ -50421,7 +50386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:91">
+    <row r="165" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>164</v>
       </c>
@@ -50692,7 +50657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:91">
+    <row r="166" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>165</v>
       </c>
@@ -50963,7 +50928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:91">
+    <row r="167" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>166</v>
       </c>
@@ -51234,7 +51199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:91">
+    <row r="168" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>167</v>
       </c>
@@ -51505,7 +51470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:91">
+    <row r="169" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>168</v>
       </c>
@@ -51776,7 +51741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:91">
+    <row r="170" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>169</v>
       </c>
@@ -52047,7 +52012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:91">
+    <row r="171" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>170</v>
       </c>
@@ -52318,7 +52283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:91">
+    <row r="172" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>171</v>
       </c>
@@ -52589,7 +52554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:91">
+    <row r="173" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>172</v>
       </c>
@@ -52860,7 +52825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:91">
+    <row r="174" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>173</v>
       </c>
@@ -53131,7 +53096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:91">
+    <row r="175" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>174</v>
       </c>
@@ -53402,7 +53367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:91">
+    <row r="176" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>175</v>
       </c>
@@ -53673,7 +53638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:91">
+    <row r="177" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>176</v>
       </c>
@@ -53944,7 +53909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:91">
+    <row r="178" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>177</v>
       </c>
@@ -54215,7 +54180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:91">
+    <row r="179" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>178</v>
       </c>
@@ -54486,7 +54451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:91">
+    <row r="180" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>179</v>
       </c>
@@ -54757,7 +54722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:91">
+    <row r="181" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>180</v>
       </c>
@@ -55028,7 +54993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:91">
+    <row r="182" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>181</v>
       </c>
@@ -55299,7 +55264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:91">
+    <row r="183" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>182</v>
       </c>
@@ -55570,7 +55535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:91">
+    <row r="184" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>183</v>
       </c>
@@ -55841,7 +55806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:91">
+    <row r="185" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>184</v>
       </c>
@@ -56112,7 +56077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:91">
+    <row r="186" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>185</v>
       </c>
@@ -56383,7 +56348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:91">
+    <row r="187" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>186</v>
       </c>
@@ -56654,7 +56619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:91">
+    <row r="188" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>187</v>
       </c>
@@ -56925,7 +56890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:91">
+    <row r="189" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>188</v>
       </c>
@@ -57196,7 +57161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:91">
+    <row r="190" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>189</v>
       </c>
@@ -57467,7 +57432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:91">
+    <row r="191" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>190</v>
       </c>
@@ -57738,7 +57703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:91">
+    <row r="192" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>191</v>
       </c>
@@ -58009,7 +57974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:91">
+    <row r="193" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>192</v>
       </c>
@@ -58280,7 +58245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:91">
+    <row r="194" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>193</v>
       </c>
@@ -58551,7 +58516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:91">
+    <row r="195" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>194</v>
       </c>
@@ -58822,7 +58787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:91">
+    <row r="196" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>195</v>
       </c>
@@ -59093,7 +59058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:91">
+    <row r="197" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>196</v>
       </c>
@@ -59364,7 +59329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:91">
+    <row r="198" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>197</v>
       </c>
@@ -59635,7 +59600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:91">
+    <row r="199" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>198</v>
       </c>
@@ -59906,7 +59871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:91">
+    <row r="200" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>199</v>
       </c>
@@ -60177,7 +60142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:91">
+    <row r="201" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>200</v>
       </c>
@@ -60448,7 +60413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:91">
+    <row r="202" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>201</v>
       </c>
@@ -60719,7 +60684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:91">
+    <row r="203" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>202</v>
       </c>
@@ -60990,7 +60955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:91">
+    <row r="204" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>203</v>
       </c>
@@ -61261,7 +61226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:91">
+    <row r="205" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>204</v>
       </c>
@@ -61532,7 +61497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:91">
+    <row r="206" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>205</v>
       </c>
@@ -61803,7 +61768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:91">
+    <row r="207" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>206</v>
       </c>
@@ -62074,7 +62039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:91">
+    <row r="208" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>207</v>
       </c>
@@ -62345,7 +62310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:91">
+    <row r="209" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>208</v>
       </c>
@@ -62616,7 +62581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:91">
+    <row r="210" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>209</v>
       </c>
@@ -62887,7 +62852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:91">
+    <row r="211" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>210</v>
       </c>
@@ -63158,7 +63123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:91">
+    <row r="212" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>211</v>
       </c>
@@ -63429,7 +63394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:91">
+    <row r="213" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>212</v>
       </c>
@@ -63700,7 +63665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:91">
+    <row r="214" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>213</v>
       </c>
@@ -63971,7 +63936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:91">
+    <row r="215" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>214</v>
       </c>
@@ -64242,7 +64207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:91">
+    <row r="216" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>215</v>
       </c>
@@ -64513,7 +64478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:91">
+    <row r="217" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>216</v>
       </c>
@@ -64784,7 +64749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:91">
+    <row r="218" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>217</v>
       </c>
@@ -65055,7 +65020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:91">
+    <row r="219" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>218</v>
       </c>
@@ -65326,7 +65291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:91">
+    <row r="220" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>219</v>
       </c>
@@ -65597,7 +65562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:91">
+    <row r="221" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>220</v>
       </c>
@@ -65868,7 +65833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:91">
+    <row r="222" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>221</v>
       </c>
@@ -66139,7 +66104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:91">
+    <row r="223" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>222</v>
       </c>
@@ -66410,7 +66375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:91">
+    <row r="224" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>223</v>
       </c>
@@ -66681,7 +66646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:91">
+    <row r="225" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>224</v>
       </c>
@@ -66952,7 +66917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:91">
+    <row r="226" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>225</v>
       </c>
@@ -67223,7 +67188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:91">
+    <row r="227" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>226</v>
       </c>
@@ -67494,7 +67459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:91">
+    <row r="228" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>227</v>
       </c>
@@ -67765,7 +67730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:91">
+    <row r="229" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>228</v>
       </c>
@@ -68036,7 +68001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:91">
+    <row r="230" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>229</v>
       </c>
@@ -68307,7 +68272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:91">
+    <row r="231" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>230</v>
       </c>
@@ -68578,7 +68543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:91">
+    <row r="232" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>231</v>
       </c>
@@ -68849,7 +68814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:91">
+    <row r="233" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>232</v>
       </c>
@@ -69120,7 +69085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:91">
+    <row r="234" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>233</v>
       </c>
@@ -69391,7 +69356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:91">
+    <row r="235" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>234</v>
       </c>
@@ -69662,7 +69627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:91">
+    <row r="236" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>235</v>
       </c>
@@ -69933,7 +69898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:91">
+    <row r="237" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>236</v>
       </c>
@@ -70204,7 +70169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:91">
+    <row r="238" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>237</v>
       </c>
@@ -70475,7 +70440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:91">
+    <row r="239" spans="1:91" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>238</v>
       </c>
